--- a/Results_files/H_sapiens_S_cerevisiae_results.xlsx
+++ b/Results_files/H_sapiens_S_cerevisiae_results.xlsx
@@ -61856,12 +61856,12 @@
     <row r="1923">
       <c r="A1923" t="inlineStr">
         <is>
-          <t>Q9Y4P8</t>
+          <t>P83881</t>
         </is>
       </c>
       <c r="B1923" t="inlineStr">
         <is>
-          <t>P43601</t>
+          <t>P0CX27</t>
         </is>
       </c>
       <c r="C1923" t="inlineStr">
@@ -61876,24 +61876,24 @@
       </c>
       <c r="E1923" t="inlineStr">
         <is>
-          <t>PTHR11227</t>
+          <t>PTHR10369</t>
         </is>
       </c>
       <c r="F1923" t="inlineStr">
         <is>
-          <t>PTHR11227</t>
+          <t>PTHR10369</t>
         </is>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>Q9BTT4</t>
+          <t>Q00610</t>
         </is>
       </c>
       <c r="B1924" t="inlineStr">
         <is>
-          <t>Q06213</t>
+          <t>P22137</t>
         </is>
       </c>
       <c r="C1924" t="inlineStr">
@@ -61908,24 +61908,24 @@
       </c>
       <c r="E1924" t="inlineStr">
         <is>
-          <t>PTHR13345</t>
+          <t>PTHR10292</t>
         </is>
       </c>
       <c r="F1924" t="inlineStr">
         <is>
-          <t>PTHR13345</t>
+          <t>PTHR10292</t>
         </is>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>Q2VPK5</t>
+          <t>P12236</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>P53923</t>
+          <t>P18238</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
@@ -61940,24 +61940,24 @@
       </c>
       <c r="E1925" t="inlineStr">
         <is>
-          <t>PTHR20882</t>
+          <t>PTHR45635</t>
         </is>
       </c>
       <c r="F1925" t="inlineStr">
         <is>
-          <t>PTHR20882</t>
+          <t>PTHR45635</t>
         </is>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>P12081</t>
+          <t>P62249</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>P07263</t>
+          <t>P0CX52</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
@@ -61972,24 +61972,24 @@
       </c>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>PTHR11476</t>
+          <t>PTHR21569</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>PTHR11476</t>
+          <t>PTHR21569</t>
         </is>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>P84101</t>
+          <t>Q9HAV0</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>Q3E7B7</t>
+          <t>P18851</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
@@ -62004,24 +62004,24 @@
       </c>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>PTHR13596</t>
+          <t>PTHR19850</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>PTHR13596</t>
+          <t>PTHR19850</t>
         </is>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>P37802</t>
+          <t>Q96LU5</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>Q08873</t>
+          <t>P28627</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
@@ -62036,24 +62036,24 @@
       </c>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>PTHR47385</t>
+          <t>PTHR12383</t>
         </is>
       </c>
       <c r="F1928" t="inlineStr">
         <is>
-          <t>PTHR47385</t>
+          <t>PTHR12383</t>
         </is>
       </c>
     </row>
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>Q9NPA8</t>
+          <t>Q99613</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>Q6WNK7</t>
+          <t>P32497</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
@@ -62068,24 +62068,24 @@
       </c>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>PTHR12514</t>
+          <t>PTHR13937</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr">
         <is>
-          <t>PTHR12514</t>
+          <t>PTHR13937</t>
         </is>
       </c>
     </row>
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>O14965</t>
+          <t>P84077</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>P38991</t>
+          <t>P19146</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
@@ -62100,24 +62100,24 @@
       </c>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>PTHR24350</t>
+          <t>PTHR11711</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>PTHR24350</t>
+          <t>PTHR11711</t>
         </is>
       </c>
     </row>
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>O43633</t>
+          <t>Q6P5R6</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>P36108</t>
+          <t>P05749</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
@@ -62132,24 +62132,24 @@
       </c>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR10064</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR10064</t>
         </is>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>O95336</t>
+          <t>P41567</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>P38858</t>
+          <t>P32911</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
@@ -62164,24 +62164,24 @@
       </c>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>PTHR11054</t>
+          <t>PTHR10388</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr">
         <is>
-          <t>PTHR11054</t>
+          <t>PTHR10388</t>
         </is>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>O75947</t>
+          <t>Q9H221</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>P30902</t>
+          <t>Q08234</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -62196,24 +62196,24 @@
       </c>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>PTHR12700</t>
+          <t>PTHR48041</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr">
         <is>
-          <t>PTHR12700</t>
+          <t>PTHR48041</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>O15305</t>
+          <t>O14975</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>P07283</t>
+          <t>P38225</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
@@ -62228,24 +62228,24 @@
       </c>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>PTHR10466</t>
+          <t>PTHR43107</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr">
         <is>
-          <t>PTHR10466</t>
+          <t>PTHR43107</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>P49841</t>
+          <t>P28845</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>P38615</t>
+          <t>P40579</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
@@ -62260,24 +62260,24 @@
       </c>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>PTHR24057</t>
+          <t>PTHR44279</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr">
         <is>
-          <t>PTHR24057</t>
+          <t>PTHR43008</t>
         </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>P62249</t>
+          <t>Q9BRT8</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>P0CX52</t>
+          <t>P53729</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
@@ -62292,24 +62292,24 @@
       </c>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR13748</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr">
         <is>
-          <t>PTHR21569</t>
+          <t>PTHR13748</t>
         </is>
       </c>
     </row>
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>P31689</t>
+          <t>O75347</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>P25491</t>
+          <t>P48606</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
@@ -62324,24 +62324,24 @@
       </c>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>PTHR43888</t>
+          <t>PTHR21500</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr">
         <is>
-          <t>PTHR43888</t>
+          <t>PTHR21500</t>
         </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>O43747</t>
+          <t>Q7L5L3</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>Q12028</t>
+          <t>Q08959</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
@@ -62356,24 +62356,24 @@
       </c>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>PTHR22780</t>
+          <t>PTHR42758</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr">
         <is>
-          <t>PTHR22780</t>
+          <t>PTHR42758</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>Q9Y5L4</t>
+          <t>P51793</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>P53299</t>
+          <t>P37020</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
@@ -62388,24 +62388,24 @@
       </c>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR45711</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR45711</t>
         </is>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>P41250</t>
+          <t>P50613</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>P38088</t>
+          <t>P06242</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
@@ -62420,24 +62420,24 @@
       </c>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>PTHR10745</t>
+          <t>PTHR24056</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>PTHR10745</t>
+          <t>PTHR24056</t>
         </is>
       </c>
     </row>
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>Q9P2K8</t>
+          <t>P62837</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>P15442</t>
+          <t>P15732</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
@@ -62452,24 +62452,24 @@
       </c>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>PTHR11042</t>
+          <t>PTHR24068</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr">
         <is>
-          <t>PTHR11042</t>
+          <t>PTHR24068</t>
         </is>
       </c>
     </row>
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>P84243</t>
+          <t>P10619</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>P61830</t>
+          <t>P38109</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
@@ -62484,24 +62484,24 @@
       </c>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>PTHR11426</t>
+          <t>PTHR11802</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>PTHR11426</t>
+          <t>PTHR11802</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>O75348</t>
+          <t>O15427</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>P48836</t>
+          <t>Q08268</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
@@ -62516,24 +62516,24 @@
       </c>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>PTHR12713</t>
+          <t>PTHR11360</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr">
         <is>
-          <t>PTHR12713</t>
+          <t>PTHR11360</t>
         </is>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>P08684</t>
+          <t>Q8N6T3</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>P21595</t>
+          <t>P35197</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
@@ -62548,24 +62548,24 @@
       </c>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>PTHR24302</t>
+          <t>PTHR46395</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr">
         <is>
-          <t>PTHR24305</t>
+          <t>PTHR45686</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>P54725</t>
+          <t>Q8TB40</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>P32628</t>
+          <t>Q12385</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
@@ -62580,24 +62580,24 @@
       </c>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>PTHR10621</t>
+          <t>PTHR42886</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr">
         <is>
-          <t>PTHR10621</t>
+          <t>PTHR42886</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Q9HAV0</t>
+          <t>P49459</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>P18851</t>
+          <t>P06104</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
@@ -62612,24 +62612,24 @@
       </c>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>PTHR19850</t>
+          <t>PTHR24067</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr">
         <is>
-          <t>PTHR19850</t>
+          <t>PTHR24067</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>P29803</t>
+          <t>O75570</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>P16387</t>
+          <t>P30775</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
@@ -62644,24 +62644,24 @@
       </c>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>PTHR11516</t>
+          <t>PTHR43804</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr">
         <is>
-          <t>PTHR11516</t>
+          <t>PTHR43804</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>Q6ZVE7</t>
+          <t>P62280</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>Q03554</t>
+          <t>P0CX48</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
@@ -62676,24 +62676,24 @@
       </c>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>PTHR21493</t>
+          <t>PTHR10744</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr">
         <is>
-          <t>PTHR21493</t>
+          <t>PTHR10744</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>O75354</t>
+          <t>Q5QNW6</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>P32621</t>
+          <t>P02294</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
@@ -62708,24 +62708,24 @@
       </c>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>PTHR11782</t>
+          <t>PTHR23428</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr">
         <is>
-          <t>PTHR11782</t>
+          <t>PTHR23428</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>P23763</t>
+          <t>Q16773</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>P33328</t>
+          <t>P47039</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
@@ -62740,24 +62740,24 @@
       </c>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>PTHR45701</t>
+          <t>PTHR43807</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr">
         <is>
-          <t>PTHR45701</t>
+          <t>PTHR43807</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>P61313</t>
+          <t>P62987</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>P54780</t>
+          <t>P0CH09</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
@@ -62772,24 +62772,24 @@
       </c>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>PTHR11847</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr">
         <is>
-          <t>PTHR11847</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>P62987</t>
+          <t>Q9GZP9</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>P0CH09</t>
+          <t>P38307</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
@@ -62804,24 +62804,24 @@
       </c>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11009</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11009</t>
         </is>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>P11142</t>
+          <t>O60830</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>P09435</t>
+          <t>P39515</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
@@ -62836,24 +62836,24 @@
       </c>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>PTHR19375</t>
+          <t>PTHR10485</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr">
         <is>
-          <t>PTHR19375</t>
+          <t>PTHR10485</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>Q8N4E4</t>
+          <t>Q8TBZ5</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Q12017</t>
+          <t>Q12041</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
@@ -62868,24 +62868,20 @@
       </c>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>PTHR45809</t>
-        </is>
-      </c>
-      <c r="F1954" t="inlineStr">
-        <is>
-          <t>PTHR45809</t>
-        </is>
-      </c>
+          <t>PTHR24384</t>
+        </is>
+      </c>
+      <c r="F1954" t="inlineStr"/>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>P40429</t>
+          <t>O14874</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>P26784</t>
+          <t>P53170</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
@@ -62900,24 +62896,24 @@
       </c>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>PTHR11545</t>
+          <t>PTHR11947</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr">
         <is>
-          <t>PTHR11545</t>
+          <t>PTHR11947</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>P07900</t>
+          <t>P0CG48</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>P02829</t>
+          <t>P0CG63</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
@@ -62932,24 +62928,24 @@
       </c>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>PTHR11528</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr">
         <is>
-          <t>PTHR11528</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>P15259</t>
+          <t>P21281</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>P00950</t>
+          <t>P16140</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
@@ -62964,24 +62960,24 @@
       </c>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>PTHR11931</t>
+          <t>PTHR43389</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr">
         <is>
-          <t>PTHR11931</t>
+          <t>PTHR43389</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>P61513</t>
+          <t>Q9Y2X8</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>P0CX25</t>
+          <t>P15731</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
@@ -62996,24 +62992,24 @@
       </c>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>PTHR48160</t>
+          <t>PTHR24068</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr">
         <is>
-          <t>PTHR48188</t>
+          <t>PTHR24068</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>P62899</t>
+          <t>Q9NPA8</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>P0C2H9</t>
+          <t>Q6WNK7</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
@@ -63028,24 +63024,24 @@
       </c>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>PTHR10956</t>
+          <t>PTHR12514</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr">
         <is>
-          <t>PTHR10956</t>
+          <t>PTHR12514</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>Q92504</t>
+          <t>Q9P0U1</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>P40544</t>
+          <t>P53507</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
@@ -63060,24 +63056,24 @@
       </c>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>PTHR16950</t>
+          <t>PTHR46722</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr">
         <is>
-          <t>PTHR16950</t>
+          <t>PTHR34944</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>Q6YFQ2</t>
+          <t>Q6BCY4</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Q01519</t>
+          <t>P38626</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
@@ -63092,24 +63088,24 @@
       </c>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>PTHR11387</t>
+          <t>PTHR19370</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr">
         <is>
-          <t>PTHR46281</t>
+          <t>PTHR19370</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>Q8NBQ5</t>
+          <t>P56377</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Q07530</t>
+          <t>P35181</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
@@ -63124,24 +63120,24 @@
       </c>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>PTHR24322</t>
+          <t>PTHR11753</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr">
         <is>
-          <t>PTHR24322</t>
+          <t>PTHR11753</t>
         </is>
       </c>
     </row>
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>Q8TD30</t>
+          <t>Q14697</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>P52892</t>
+          <t>P38138</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
@@ -63156,24 +63152,24 @@
       </c>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>PTHR11751</t>
+          <t>PTHR22762</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr">
         <is>
-          <t>PTHR11751</t>
+          <t>PTHR22762</t>
         </is>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>Q14137</t>
+          <t>P24928</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>Q04660</t>
+          <t>P04050</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
@@ -63188,24 +63184,24 @@
       </c>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>PTHR17605</t>
+          <t>PTHR19376</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr">
         <is>
-          <t>PTHR17605</t>
+          <t>PTHR19376</t>
         </is>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>O43731</t>
+          <t>P09467</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>P18414</t>
+          <t>P09201</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
@@ -63220,24 +63216,24 @@
       </c>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>PTHR10585</t>
+          <t>PTHR11556</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr">
         <is>
-          <t>PTHR10585</t>
+          <t>PTHR11556</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>P62266</t>
+          <t>Q969S9</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>P0CX30</t>
+          <t>P39677</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
@@ -63252,24 +63248,24 @@
       </c>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR43261</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr">
         <is>
-          <t>PTHR11652</t>
+          <t>PTHR43261</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>Q9NZZ3</t>
+          <t>P46781</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>Q03390</t>
+          <t>O13516</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
@@ -63284,24 +63280,24 @@
       </c>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR11831</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR11831</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>O75529</t>
+          <t>Q00266</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>P38129</t>
+          <t>P10659</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
@@ -63316,24 +63312,24 @@
       </c>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>PTHR19879</t>
+          <t>PTHR11964</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr">
         <is>
-          <t>PTHR19879</t>
+          <t>PTHR11964</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>P61964</t>
+          <t>O95372</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>P38123</t>
+          <t>Q12354</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
@@ -63348,24 +63344,24 @@
       </c>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>PTHR22847</t>
+          <t>PTHR10655</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr">
         <is>
-          <t>PTHR22847</t>
+          <t>PTHR10655</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>P54619</t>
+          <t>Q9BXS5</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>P12904</t>
+          <t>Q00776</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
@@ -63380,24 +63376,24 @@
       </c>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>PTHR13780</t>
+          <t>PTHR10529</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr">
         <is>
-          <t>PTHR13780</t>
+          <t>PTHR10529</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>P37837</t>
+          <t>P29803</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>P53228</t>
+          <t>P16387</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
@@ -63412,24 +63408,24 @@
       </c>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>PTHR10683</t>
+          <t>PTHR11516</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr">
         <is>
-          <t>PTHR10683</t>
+          <t>PTHR11516</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>Q16773</t>
+          <t>Q96K37</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>P47039</t>
+          <t>P22215</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
@@ -63444,24 +63440,24 @@
       </c>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>PTHR43807</t>
+          <t>PTHR11132</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr">
         <is>
-          <t>PTHR43807</t>
+          <t>PTHR11132</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>P09467</t>
+          <t>Q9P2K8</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>P09201</t>
+          <t>P15442</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
@@ -63476,24 +63472,24 @@
       </c>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>PTHR11556</t>
+          <t>PTHR11042</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr">
         <is>
-          <t>PTHR11556</t>
+          <t>PTHR11042</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>Q9ULW6</t>
+          <t>P11142</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>P25293</t>
+          <t>P09435</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
@@ -63508,24 +63504,24 @@
       </c>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>PTHR11875</t>
+          <t>PTHR19375</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr">
         <is>
-          <t>PTHR11875</t>
+          <t>PTHR19375</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>Q96LU5</t>
+          <t>Q9BSY4</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>P28627</t>
+          <t>Q04341</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
@@ -63540,24 +63536,24 @@
       </c>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>PTHR12383</t>
+          <t>PTHR47106</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr">
         <is>
-          <t>PTHR12383</t>
+          <t>PTHR47106</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>P62854</t>
+          <t>Q9HB90</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>P39939</t>
+          <t>P53290</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
@@ -63572,24 +63568,24 @@
       </c>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>PTHR12538</t>
+          <t>PTHR11259</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr">
         <is>
-          <t>PTHR12538</t>
+          <t>PTHR11259</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>Q9HB90</t>
+          <t>P36543</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>P53290</t>
+          <t>P22203</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
@@ -63604,24 +63600,24 @@
       </c>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>PTHR11259</t>
+          <t>PTHR45715</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr">
         <is>
-          <t>PTHR11259</t>
+          <t>PTHR45715</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>Q8N4V2</t>
+          <t>P20340</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>P25297</t>
+          <t>Q99260</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
@@ -63636,24 +63632,24 @@
       </c>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>PTHR24064</t>
+          <t>PTHR24073</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr">
         <is>
-          <t>PTHR24064</t>
+          <t>PTHR24073</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>P30050</t>
+          <t>Q99873</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>P0CX54</t>
+          <t>P38074</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
@@ -63668,24 +63664,24 @@
       </c>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR11006</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr">
         <is>
-          <t>PTHR11661</t>
+          <t>PTHR11006</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>Q9NR50</t>
+          <t>Q15833</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>P09032</t>
+          <t>P30619</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
@@ -63700,24 +63696,24 @@
       </c>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>PTHR45989</t>
+          <t>PTHR11679</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr">
         <is>
-          <t>PTHR45989</t>
+          <t>PTHR11679</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>P78417</t>
+          <t>Q2TB90</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>Q12390</t>
+          <t>P04807</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
@@ -63732,24 +63728,24 @@
       </c>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>PTHR43968</t>
+          <t>PTHR19443</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr">
         <is>
-          <t>PTHR43900</t>
+          <t>PTHR19443</t>
         </is>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>P62714</t>
+          <t>O75354</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>P23595</t>
+          <t>P32621</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
@@ -63764,24 +63760,24 @@
       </c>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>PTHR45619</t>
+          <t>PTHR11782</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr">
         <is>
-          <t>PTHR45619</t>
+          <t>PTHR11782</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>Q8N3E9</t>
+          <t>P0DPB6</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>P32383</t>
+          <t>P28000</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
@@ -63796,24 +63792,24 @@
       </c>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>PTHR10336</t>
+          <t>PTHR13946</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr">
         <is>
-          <t>PTHR10336</t>
+          <t>PTHR13946</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>Q04760</t>
+          <t>P84243</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>P50107</t>
+          <t>P61830</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
@@ -63828,24 +63824,24 @@
       </c>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>PTHR10374</t>
+          <t>PTHR11426</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr">
         <is>
-          <t>PTHR10374</t>
+          <t>PTHR11426</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>P60059</t>
+          <t>Q08AI6</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>P35179</t>
+          <t>P39981</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
@@ -63860,24 +63856,24 @@
       </c>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>PTHR12309</t>
+          <t>PTHR22950</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr">
         <is>
-          <t>PTHR12309</t>
+          <t>PTHR22950</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>Q969S9</t>
+          <t>P54725</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>P39677</t>
+          <t>P32628</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
@@ -63892,24 +63888,24 @@
       </c>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>PTHR43261</t>
+          <t>PTHR10621</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr">
         <is>
-          <t>PTHR43261</t>
+          <t>PTHR10621</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>Q6ZS86</t>
+          <t>Q13503</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>P32190</t>
+          <t>P47822</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
@@ -63924,24 +63920,24 @@
       </c>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>PTHR10196</t>
+          <t>PTHR13381</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr">
         <is>
-          <t>PTHR10196</t>
+          <t>PTHR13381</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>P0DKB6</t>
+          <t>Q13509</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>P53157</t>
+          <t>P02557</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
@@ -63956,24 +63952,24 @@
       </c>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>PTHR14154</t>
+          <t>PTHR11588</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr">
         <is>
-          <t>PTHR14154</t>
+          <t>PTHR11588</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>Q9NRK6</t>
+          <t>P0DI82</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>P33310</t>
+          <t>P38334</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
@@ -63986,22 +63982,26 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E1989" t="inlineStr"/>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>PTHR12403</t>
+        </is>
+      </c>
       <c r="F1989" t="inlineStr">
         <is>
-          <t>PTHR43394</t>
+          <t>PTHR12403</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>P35670</t>
+          <t>O43861</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>P38995</t>
+          <t>P40527</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
@@ -64016,24 +64016,24 @@
       </c>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>PTHR43520</t>
+          <t>PTHR24092</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr">
         <is>
-          <t>PTHR43520</t>
+          <t>PTHR24092</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>P22694</t>
+          <t>P11166</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>P06245</t>
+          <t>P38142</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
@@ -64048,24 +64048,24 @@
       </c>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>PTHR24353</t>
+          <t>PTHR23503</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr">
         <is>
-          <t>PTHR24353</t>
+          <t>PTHR23503</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>Q6BCY4</t>
+          <t>Q3MIR4</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>P38626</t>
+          <t>P25656</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -64080,24 +64080,24 @@
       </c>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>PTHR19370</t>
+          <t>PTHR10926</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr">
         <is>
-          <t>PTHR19370</t>
+          <t>PTHR10926</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>Q9GZP9</t>
+          <t>Q9Y2Q0</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>P38307</t>
+          <t>P39524</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
@@ -64112,24 +64112,24 @@
       </c>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>PTHR11009</t>
+          <t>PTHR24092</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr">
         <is>
-          <t>PTHR11009</t>
+          <t>PTHR24092</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>Q15691</t>
+          <t>P40429</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>P40013</t>
+          <t>P26784</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
@@ -64144,24 +64144,24 @@
       </c>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>PTHR10623</t>
+          <t>PTHR11545</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr">
         <is>
-          <t>PTHR10623</t>
+          <t>PTHR11545</t>
         </is>
       </c>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>Q6ZSM3</t>
+          <t>P61964</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>P36032</t>
+          <t>P38123</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
@@ -64176,24 +64176,24 @@
       </c>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>PTHR11360</t>
+          <t>PTHR22847</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr">
         <is>
-          <t>PTHR11360</t>
+          <t>PTHR22847</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>P51955</t>
+          <t>Q15120</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>P22209</t>
+          <t>P40530</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
@@ -64208,24 +64208,24 @@
       </c>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>PTHR43671</t>
+          <t>PTHR11947</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr">
         <is>
-          <t>PTHR43671</t>
+          <t>PTHR11947</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>Q9BY43</t>
+          <t>Q9HD42</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>P39929</t>
+          <t>P69771</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
@@ -64240,24 +64240,24 @@
       </c>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR10476</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR10476</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>P20340</t>
+          <t>O43488</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>Q99260</t>
+          <t>P42884</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
@@ -64272,24 +64272,24 @@
       </c>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>PTHR24073</t>
+          <t>PTHR43625</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr">
         <is>
-          <t>PTHR24073</t>
+          <t>PTHR43364</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>Q9BSY4</t>
+          <t>P11908</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Q04341</t>
+          <t>P38063</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
@@ -64304,24 +64304,24 @@
       </c>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>PTHR47106</t>
+          <t>PTHR10210</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr">
         <is>
-          <t>PTHR47106</t>
+          <t>PTHR10210</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>Q16769</t>
+          <t>Q9Y244</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>P43599</t>
+          <t>P38293</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
@@ -64336,24 +64336,24 @@
       </c>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>PTHR12283</t>
+          <t>PTHR12828</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr">
         <is>
-          <t>PTHR12283</t>
+          <t>PTHR12828</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>Q3MIR4</t>
+          <t>P13667</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>P25656</t>
+          <t>P17967</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
@@ -64368,24 +64368,24 @@
       </c>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>PTHR10926</t>
+          <t>PTHR18929</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr">
         <is>
-          <t>PTHR10926</t>
+          <t>PTHR18929</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>P68104</t>
+          <t>P52758</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>P02994</t>
+          <t>P40185</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
@@ -64400,24 +64400,24 @@
       </c>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR11803</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr">
         <is>
-          <t>PTHR23115</t>
+          <t>PTHR11803</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>Q8N8R3</t>
+          <t>P07900</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>P38087</t>
+          <t>P02829</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
@@ -64432,24 +64432,24 @@
       </c>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>PTHR45624</t>
+          <t>PTHR11528</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr">
         <is>
-          <t>PTHR45624</t>
+          <t>PTHR11528</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>Q9BY50</t>
+          <t>Q00526</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>P15367</t>
+          <t>P00546</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
@@ -64464,24 +64464,24 @@
       </c>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>PTHR10806</t>
+          <t>PTHR24056</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr">
         <is>
-          <t>PTHR10806</t>
+          <t>PTHR24056</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>P34932</t>
+          <t>Q15691</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>P32590</t>
+          <t>P40013</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
@@ -64496,24 +64496,24 @@
       </c>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>PTHR45639</t>
+          <t>PTHR10623</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr">
         <is>
-          <t>PTHR45639</t>
+          <t>PTHR10623</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>P10619</t>
+          <t>P62979</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>P38109</t>
+          <t>P05759</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
@@ -64528,24 +64528,24 @@
       </c>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>PTHR11802</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr">
         <is>
-          <t>PTHR11802</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>O75387</t>
+          <t>P22694</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>Q04991</t>
+          <t>P06245</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
@@ -64560,24 +64560,24 @@
       </c>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>PTHR20766</t>
+          <t>PTHR24353</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr">
         <is>
-          <t>PTHR20772</t>
+          <t>PTHR24353</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>Q5VZY2</t>
+          <t>Q3KQZ1</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>Q05521</t>
+          <t>P32332</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
@@ -64592,24 +64592,24 @@
       </c>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>PTHR10165</t>
+          <t>PTHR45928</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr">
         <is>
-          <t>PTHR10165</t>
+          <t>PTHR45618</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>Q9NQY0</t>
+          <t>Q59GN2</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>P25343</t>
+          <t>P04650</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
@@ -64624,24 +64624,24 @@
       </c>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>PTHR47174</t>
+          <t>PTHR19970</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr">
         <is>
-          <t>PTHR47174</t>
+          <t>PTHR19970</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>Q9BXS5</t>
+          <t>Q09028</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>Q00776</t>
+          <t>P39984</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
@@ -64656,24 +64656,24 @@
       </c>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>PTHR10529</t>
+          <t>PTHR22850</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr">
         <is>
-          <t>PTHR10529</t>
+          <t>PTHR22850</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>P46781</t>
+          <t>Q9NQY0</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>O13516</t>
+          <t>P25343</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
@@ -64688,24 +64688,24 @@
       </c>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>PTHR11831</t>
+          <t>PTHR47174</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr">
         <is>
-          <t>PTHR11831</t>
+          <t>PTHR47174</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>Q9Y5J7</t>
+          <t>Q9BZK7</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>O74700</t>
+          <t>P38262</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
@@ -64720,24 +64720,24 @@
       </c>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>PTHR13172</t>
+          <t>PTHR22846</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr">
         <is>
-          <t>PTHR13172</t>
+          <t>PTHR22846</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>P32969</t>
+          <t>P62906</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>P51401</t>
+          <t>P0CX44</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
@@ -64752,24 +64752,24 @@
       </c>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>PTHR11655</t>
+          <t>PTHR23105</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr">
         <is>
-          <t>PTHR11655</t>
+          <t>PTHR23105</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>P63241</t>
+          <t>P23921</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>P23301</t>
+          <t>P21672</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
@@ -64784,24 +64784,24 @@
       </c>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>PTHR11673</t>
+          <t>PTHR11573</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr">
         <is>
-          <t>PTHR11673</t>
+          <t>PTHR11573</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>P62906</t>
+          <t>Q15843</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>P0CX44</t>
+          <t>Q03919</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
@@ -64816,24 +64816,24 @@
       </c>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR10666</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr">
         <is>
-          <t>PTHR23105</t>
+          <t>PTHR10666</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>Q14697</t>
+          <t>P78417</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>P38138</t>
+          <t>Q12390</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
@@ -64848,24 +64848,24 @@
       </c>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>PTHR22762</t>
+          <t>PTHR43968</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr">
         <is>
-          <t>PTHR22762</t>
+          <t>PTHR43900</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>Q8N6T3</t>
+          <t>Q53GQ0</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>P35197</t>
+          <t>P38286</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
@@ -64880,24 +64880,24 @@
       </c>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>PTHR46395</t>
+          <t>PTHR43899</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr">
         <is>
-          <t>PTHR45686</t>
+          <t>PTHR43086</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>Q08AI6</t>
+          <t>P08684</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>P39981</t>
+          <t>P21595</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
@@ -64912,24 +64912,24 @@
       </c>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>PTHR22950</t>
+          <t>PTHR24302</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr">
         <is>
-          <t>PTHR22950</t>
+          <t>PTHR24305</t>
         </is>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>P51793</t>
+          <t>P62714</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>P37020</t>
+          <t>P23595</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
@@ -64944,24 +64944,24 @@
       </c>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>PTHR45711</t>
+          <t>PTHR45619</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr">
         <is>
-          <t>PTHR45711</t>
+          <t>PTHR45619</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>P24928</t>
+          <t>P13929</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>P04050</t>
+          <t>P00924</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
@@ -64976,24 +64976,24 @@
       </c>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>PTHR19376</t>
+          <t>PTHR11902</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr">
         <is>
-          <t>PTHR19376</t>
+          <t>PTHR11902</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>Q6P5R6</t>
+          <t>P62241</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>P05749</t>
+          <t>P0CX39</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
@@ -65008,24 +65008,24 @@
       </c>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>PTHR10064</t>
+          <t>PTHR10394</t>
         </is>
       </c>
       <c r="F2021" t="inlineStr">
         <is>
-          <t>PTHR10064</t>
+          <t>PTHR10394</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>Q9Y2K3</t>
+          <t>P62847</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>P08964</t>
+          <t>P0CX32</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
@@ -65040,24 +65040,24 @@
       </c>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>PTHR45615</t>
+          <t>PTHR10496</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr">
         <is>
-          <t>PTHR45615</t>
+          <t>PTHR10496</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>Q00610</t>
+          <t>P42766</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>P22137</t>
+          <t>P0CX84</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
@@ -65072,24 +65072,24 @@
       </c>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>PTHR10292</t>
+          <t>PTHR45722</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr">
         <is>
-          <t>PTHR10292</t>
+          <t>PTHR45722</t>
         </is>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>Q8WWV3</t>
+          <t>Q9Y4P8</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>P28625</t>
+          <t>P43601</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
@@ -65104,24 +65104,24 @@
       </c>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>PTHR11695</t>
+          <t>PTHR11227</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr">
         <is>
-          <t>PTHR11695</t>
+          <t>PTHR11227</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>O14874</t>
+          <t>Q9Y6K0</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>P53170</t>
+          <t>P17898</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
@@ -65136,24 +65136,24 @@
       </c>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>PTHR11947</t>
+          <t>PTHR10414</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr">
         <is>
-          <t>PTHR11947</t>
+          <t>PTHR10414</t>
         </is>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>P62847</t>
+          <t>Q5T280</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>P0CX32</t>
+          <t>Q04867</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
@@ -65168,24 +65168,24 @@
       </c>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>PTHR10496</t>
+          <t>PTHR12150</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr">
         <is>
-          <t>PTHR10496</t>
+          <t>PTHR12150</t>
         </is>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>P23193</t>
+          <t>P05386</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>P07273</t>
+          <t>P05318</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
@@ -65200,24 +65200,24 @@
       </c>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>PTHR11477</t>
+          <t>PTHR45696</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr">
         <is>
-          <t>PTHR11477</t>
+          <t>PTHR45696</t>
         </is>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>Q96NR8</t>
+          <t>P30153</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Q08651</t>
+          <t>P31383</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
@@ -65232,24 +65232,24 @@
       </c>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>PTHR24320</t>
+          <t>PTHR10648</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr">
         <is>
-          <t>PTHR24320</t>
+          <t>PTHR10648</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>Q9H221</t>
+          <t>Q8N8R3</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>Q08234</t>
+          <t>P38087</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
@@ -65264,24 +65264,24 @@
       </c>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>PTHR48041</t>
+          <t>PTHR45624</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr">
         <is>
-          <t>PTHR48041</t>
+          <t>PTHR45624</t>
         </is>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>Q92930</t>
+          <t>P62081</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>P07560</t>
+          <t>P26786</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
@@ -65296,24 +65296,24 @@
       </c>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>PTHR47980</t>
+          <t>PTHR11278</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr">
         <is>
-          <t>PTHR47980</t>
+          <t>PTHR11278</t>
         </is>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>Q15833</t>
+          <t>P63261</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>P30619</t>
+          <t>P60010</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
@@ -65328,24 +65328,24 @@
       </c>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>PTHR11679</t>
+          <t>PTHR11937</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr">
         <is>
-          <t>PTHR11679</t>
+          <t>PTHR11937</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>P62701</t>
+          <t>O14965</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>P0CX35</t>
+          <t>P38991</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
@@ -65360,24 +65360,24 @@
       </c>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>PTHR11581</t>
+          <t>PTHR24350</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr">
         <is>
-          <t>PTHR11581</t>
+          <t>PTHR24350</t>
         </is>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>O60830</t>
+          <t>P68104</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>P39515</t>
+          <t>P02994</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
@@ -65392,24 +65392,24 @@
       </c>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>PTHR10485</t>
+          <t>PTHR23115</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr">
         <is>
-          <t>PTHR10485</t>
+          <t>PTHR23115</t>
         </is>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>P18077</t>
+          <t>P12081</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>P41056</t>
+          <t>P07263</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
@@ -65424,24 +65424,24 @@
       </c>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>PTHR10902</t>
+          <t>PTHR11476</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr">
         <is>
-          <t>PTHR10902</t>
+          <t>PTHR11476</t>
         </is>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>Q9UEE5</t>
+          <t>Q8TD30</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>P22517</t>
+          <t>P52892</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
@@ -65456,24 +65456,24 @@
       </c>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>PTHR24342</t>
+          <t>PTHR11751</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr">
         <is>
-          <t>PTHR24347</t>
+          <t>PTHR11751</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>O60684</t>
+          <t>P62829</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>Q02821</t>
+          <t>P0CX42</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
@@ -65488,24 +65488,24 @@
       </c>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>PTHR23316</t>
+          <t>PTHR11761</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr">
         <is>
-          <t>PTHR23316</t>
+          <t>PTHR11761</t>
         </is>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>Q9NYP7</t>
+          <t>O60684</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>P25358</t>
+          <t>Q02821</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
@@ -65520,24 +65520,24 @@
       </c>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>PTHR11157</t>
+          <t>PTHR23316</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr">
         <is>
-          <t>PTHR11157</t>
+          <t>PTHR23316</t>
         </is>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>Q99613</t>
+          <t>Q9BY43</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>P32497</t>
+          <t>P39929</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
@@ -65552,24 +65552,24 @@
       </c>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>PTHR13937</t>
+          <t>PTHR22761</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr">
         <is>
-          <t>PTHR13937</t>
+          <t>PTHR22761</t>
         </is>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>O43861</t>
+          <t>Q96FZ7</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>P40527</t>
+          <t>Q04272</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
@@ -65584,24 +65584,24 @@
       </c>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>PTHR24092</t>
+          <t>PTHR22761</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr">
         <is>
-          <t>PTHR24092</t>
+          <t>PTHR22761</t>
         </is>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>Q96MV8</t>
+          <t>P41091</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>Q03289</t>
+          <t>P32481</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
@@ -65616,24 +65616,24 @@
       </c>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>PTHR22883</t>
+          <t>PTHR42854</t>
         </is>
       </c>
       <c r="F2040" t="inlineStr">
         <is>
-          <t>PTHR22883</t>
+          <t>PTHR42854</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>P11908</t>
+          <t>P14550</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>P38063</t>
+          <t>P14065</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
@@ -65648,24 +65648,24 @@
       </c>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>PTHR10210</t>
+          <t>PTHR11732</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr">
         <is>
-          <t>PTHR10210</t>
+          <t>PTHR11732</t>
         </is>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>P11498</t>
+          <t>Q02543</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>P32327</t>
+          <t>P0CX23</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
@@ -65680,24 +65680,24 @@
       </c>
       <c r="E2042" t="inlineStr">
         <is>
-          <t>PTHR43778</t>
+          <t>PTHR10052</t>
         </is>
       </c>
       <c r="F2042" t="inlineStr">
         <is>
-          <t>PTHR43778</t>
+          <t>PTHR10052</t>
         </is>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>O75880</t>
+          <t>P62266</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>P38072</t>
+          <t>P0CX30</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
@@ -65712,24 +65712,24 @@
       </c>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>PTHR12151</t>
+          <t>PTHR11652</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr">
         <is>
-          <t>PTHR12151</t>
+          <t>PTHR11652</t>
         </is>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>P20248</t>
+          <t>P10515</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>P24869</t>
+          <t>P12695</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
@@ -65744,24 +65744,24 @@
       </c>
       <c r="E2044" t="inlineStr">
         <is>
-          <t>PTHR10177</t>
+          <t>PTHR23151</t>
         </is>
       </c>
       <c r="F2044" t="inlineStr">
         <is>
-          <t>PTHR10177</t>
+          <t>PTHR23151</t>
         </is>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>P11182</t>
+          <t>P54619</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>P19262</t>
+          <t>P12904</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
@@ -65776,24 +65776,24 @@
       </c>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>PTHR43178</t>
+          <t>PTHR13780</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr">
         <is>
-          <t>PTHR43416</t>
+          <t>PTHR13780</t>
         </is>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>P42766</t>
+          <t>P57723</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>P0CX84</t>
+          <t>P38151</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
@@ -65808,24 +65808,24 @@
       </c>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>PTHR45722</t>
+          <t>PTHR10288</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr">
         <is>
-          <t>PTHR45722</t>
+          <t>PTHR10288</t>
         </is>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>P23528</t>
+          <t>P61313</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>Q03048</t>
+          <t>P54780</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
@@ -65840,24 +65840,24 @@
       </c>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>PTHR11913</t>
+          <t>PTHR11847</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr">
         <is>
-          <t>PTHR11913</t>
+          <t>PTHR11847</t>
         </is>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>Q9UH03</t>
+          <t>P0DP23</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>P25342</t>
+          <t>P06787</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
@@ -65872,24 +65872,24 @@
       </c>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>PTHR18884</t>
+          <t>PTHR23050</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr">
         <is>
-          <t>PTHR18884</t>
+          <t>PTHR23050</t>
         </is>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>P57723</t>
+          <t>Q04760</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>P38151</t>
+          <t>P50107</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
@@ -65904,24 +65904,24 @@
       </c>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>PTHR10288</t>
+          <t>PTHR10374</t>
         </is>
       </c>
       <c r="F2049" t="inlineStr">
         <is>
-          <t>PTHR10288</t>
+          <t>PTHR10374</t>
         </is>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>P62913</t>
+          <t>O75529</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>P0C0W9</t>
+          <t>P38129</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
@@ -65936,24 +65936,24 @@
       </c>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>PTHR11994</t>
+          <t>PTHR19879</t>
         </is>
       </c>
       <c r="F2050" t="inlineStr">
         <is>
-          <t>PTHR11994</t>
+          <t>PTHR19879</t>
         </is>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>Q9Y2Q0</t>
+          <t>P62899</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>P39524</t>
+          <t>P0C2H9</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -65968,24 +65968,24 @@
       </c>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>PTHR24092</t>
+          <t>PTHR10956</t>
         </is>
       </c>
       <c r="F2051" t="inlineStr">
         <is>
-          <t>PTHR24092</t>
+          <t>PTHR10956</t>
         </is>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>Q9BZK7</t>
+          <t>Q9NR50</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>P38262</t>
+          <t>P09032</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
@@ -66000,24 +66000,24 @@
       </c>
       <c r="E2052" t="inlineStr">
         <is>
-          <t>PTHR22846</t>
+          <t>PTHR45989</t>
         </is>
       </c>
       <c r="F2052" t="inlineStr">
         <is>
-          <t>PTHR22846</t>
+          <t>PTHR45989</t>
         </is>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>P10515</t>
+          <t>P68400</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>P12695</t>
+          <t>P19454</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
@@ -66032,24 +66032,24 @@
       </c>
       <c r="E2053" t="inlineStr">
         <is>
-          <t>PTHR23151</t>
+          <t>PTHR24054</t>
         </is>
       </c>
       <c r="F2053" t="inlineStr">
         <is>
-          <t>PTHR23151</t>
+          <t>PTHR24054</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>Q00341</t>
+          <t>Q96PU5</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>P06105</t>
+          <t>P39940</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
@@ -66064,24 +66064,24 @@
       </c>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>PTHR10627</t>
+          <t>PTHR11254</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr">
         <is>
-          <t>PTHR10627</t>
+          <t>PTHR11254</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>Q9Y6D5</t>
+          <t>O15270</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>P11075</t>
+          <t>P40970</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
@@ -66096,24 +66096,24 @@
       </c>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>PTHR10663</t>
+          <t>PTHR13693</t>
         </is>
       </c>
       <c r="F2055" t="inlineStr">
         <is>
-          <t>PTHR10663</t>
+          <t>PTHR13693</t>
         </is>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>P29218</t>
+          <t>P49841</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>Q05533</t>
+          <t>P38615</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
@@ -66128,24 +66128,24 @@
       </c>
       <c r="E2056" t="inlineStr">
         <is>
-          <t>PTHR20854</t>
+          <t>PTHR24057</t>
         </is>
       </c>
       <c r="F2056" t="inlineStr">
         <is>
-          <t>PTHR20854</t>
+          <t>PTHR24057</t>
         </is>
       </c>
     </row>
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>P63261</t>
+          <t>Q9ULV0</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>P60010</t>
+          <t>P19524</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
@@ -66160,24 +66160,24 @@
       </c>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>PTHR11937</t>
+          <t>PTHR13140</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr">
         <is>
-          <t>PTHR11937</t>
+          <t>PTHR13140</t>
         </is>
       </c>
     </row>
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>Q5QNW6</t>
+          <t>O75694</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>P02294</t>
+          <t>P40064</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
@@ -66192,24 +66192,24 @@
       </c>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>PTHR23428</t>
+          <t>PTHR10350</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr">
         <is>
-          <t>PTHR23428</t>
+          <t>PTHR10350</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>Q96PU5</t>
+          <t>Q9UDW1</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>P39940</t>
+          <t>P22289</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
@@ -66224,24 +66224,24 @@
       </c>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>PTHR11254</t>
+          <t>PTHR12980</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr">
         <is>
-          <t>PTHR11254</t>
+          <t>PTHR12980</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>P78318</t>
+          <t>P23763</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Q04372</t>
+          <t>P33328</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
@@ -66256,24 +66256,24 @@
       </c>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>PTHR10933</t>
+          <t>PTHR45701</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr">
         <is>
-          <t>PTHR10933</t>
+          <t>PTHR45701</t>
         </is>
       </c>
     </row>
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>Q00765</t>
+          <t>Q96SE0</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>Q12402</t>
+          <t>Q03649</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
@@ -66288,24 +66288,24 @@
       </c>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>PTHR12300</t>
+          <t>PTHR10794</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr">
         <is>
-          <t>PTHR12300</t>
+          <t>PTHR10794</t>
         </is>
       </c>
     </row>
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>Q96FZ7</t>
+          <t>Q92930</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>Q04272</t>
+          <t>P07560</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
@@ -66320,24 +66320,24 @@
       </c>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR47980</t>
         </is>
       </c>
       <c r="F2062" t="inlineStr">
         <is>
-          <t>PTHR22761</t>
+          <t>PTHR47980</t>
         </is>
       </c>
     </row>
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>A6NIM6</t>
+          <t>P78318</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>P32901</t>
+          <t>Q04372</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
@@ -66352,24 +66352,24 @@
       </c>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>PTHR11654</t>
+          <t>PTHR10933</t>
         </is>
       </c>
       <c r="F2063" t="inlineStr">
         <is>
-          <t>PTHR11654</t>
+          <t>PTHR10933</t>
         </is>
       </c>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>P21281</t>
+          <t>Q2VPK5</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>P16140</t>
+          <t>P53923</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
@@ -66384,24 +66384,24 @@
       </c>
       <c r="E2064" t="inlineStr">
         <is>
-          <t>PTHR43389</t>
+          <t>PTHR20882</t>
         </is>
       </c>
       <c r="F2064" t="inlineStr">
         <is>
-          <t>PTHR43389</t>
+          <t>PTHR20882</t>
         </is>
       </c>
     </row>
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>P50613</t>
+          <t>P46778</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>P06242</t>
+          <t>Q02753</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
@@ -66416,24 +66416,24 @@
       </c>
       <c r="E2065" t="inlineStr">
         <is>
-          <t>PTHR24056</t>
+          <t>PTHR20981</t>
         </is>
       </c>
       <c r="F2065" t="inlineStr">
         <is>
-          <t>PTHR24056</t>
+          <t>PTHR20981</t>
         </is>
       </c>
     </row>
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>P07339</t>
+          <t>Q6ZSM3</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>P07267</t>
+          <t>P36032</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
@@ -66448,24 +66448,24 @@
       </c>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>PTHR47966</t>
+          <t>PTHR11360</t>
         </is>
       </c>
       <c r="F2066" t="inlineStr">
         <is>
-          <t>PTHR47966</t>
+          <t>PTHR11360</t>
         </is>
       </c>
     </row>
     <row r="2067">
       <c r="A2067" t="inlineStr">
         <is>
-          <t>Q3KQZ1</t>
+          <t>Q9UEE5</t>
         </is>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>P32332</t>
+          <t>P22517</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
@@ -66480,24 +66480,24 @@
       </c>
       <c r="E2067" t="inlineStr">
         <is>
-          <t>PTHR45928</t>
+          <t>PTHR24342</t>
         </is>
       </c>
       <c r="F2067" t="inlineStr">
         <is>
-          <t>PTHR45618</t>
+          <t>PTHR24347</t>
         </is>
       </c>
     </row>
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>A6NMK7</t>
+          <t>Q9BY50</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Q06102</t>
+          <t>P15367</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
@@ -66512,24 +66512,24 @@
       </c>
       <c r="E2068" t="inlineStr">
         <is>
-          <t>PTHR23102</t>
+          <t>PTHR10806</t>
         </is>
       </c>
       <c r="F2068" t="inlineStr">
         <is>
-          <t>PTHR23102</t>
+          <t>PTHR10806</t>
         </is>
       </c>
     </row>
     <row r="2069">
       <c r="A2069" t="inlineStr">
         <is>
-          <t>Q16775</t>
+          <t>P63241</t>
         </is>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Q12320</t>
+          <t>P23301</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
@@ -66544,24 +66544,24 @@
       </c>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>PTHR11935</t>
+          <t>PTHR11673</t>
         </is>
       </c>
       <c r="F2069" t="inlineStr">
         <is>
-          <t>PTHR11935</t>
+          <t>PTHR11673</t>
         </is>
       </c>
     </row>
     <row r="2070">
       <c r="A2070" t="inlineStr">
         <is>
-          <t>Q15843</t>
+          <t>P84098</t>
         </is>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>Q03919</t>
+          <t>P0CX83</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
@@ -66576,24 +66576,24 @@
       </c>
       <c r="E2070" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10722</t>
         </is>
       </c>
       <c r="F2070" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR10722</t>
         </is>
       </c>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>Q8TBZ5</t>
+          <t>P23528</t>
         </is>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>Q12041</t>
+          <t>Q03048</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr">
@@ -66608,20 +66608,24 @@
       </c>
       <c r="E2071" t="inlineStr">
         <is>
-          <t>PTHR24384</t>
-        </is>
-      </c>
-      <c r="F2071" t="inlineStr"/>
+          <t>PTHR11913</t>
+        </is>
+      </c>
+      <c r="F2071" t="inlineStr">
+        <is>
+          <t>PTHR11913</t>
+        </is>
+      </c>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>A8MWL7</t>
+          <t>P31689</t>
         </is>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>P47131</t>
+          <t>P25491</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
@@ -66636,24 +66640,24 @@
       </c>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>PTHR12668</t>
+          <t>PTHR43888</t>
         </is>
       </c>
       <c r="F2072" t="inlineStr">
         <is>
-          <t>PTHR12668</t>
+          <t>PTHR43888</t>
         </is>
       </c>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>Q00526</t>
+          <t>P35670</t>
         </is>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>P00546</t>
+          <t>P38995</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
@@ -66668,24 +66672,24 @@
       </c>
       <c r="E2073" t="inlineStr">
         <is>
-          <t>PTHR24056</t>
+          <t>PTHR43520</t>
         </is>
       </c>
       <c r="F2073" t="inlineStr">
         <is>
-          <t>PTHR24056</t>
+          <t>PTHR43520</t>
         </is>
       </c>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>P52790</t>
+          <t>Q9Y3B3</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>P04806</t>
+          <t>P39704</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
@@ -66700,24 +66704,24 @@
       </c>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR22811</t>
         </is>
       </c>
       <c r="F2074" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR22811</t>
         </is>
       </c>
     </row>
     <row r="2075">
       <c r="A2075" t="inlineStr">
         <is>
-          <t>P0CG48</t>
+          <t>P07339</t>
         </is>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>P0CG63</t>
+          <t>P07267</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
@@ -66732,24 +66736,24 @@
       </c>
       <c r="E2075" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR47966</t>
         </is>
       </c>
       <c r="F2075" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR47966</t>
         </is>
       </c>
     </row>
     <row r="2076">
       <c r="A2076" t="inlineStr">
         <is>
-          <t>Q96SE0</t>
+          <t>Q49B96</t>
         </is>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>Q03649</t>
+          <t>Q3E731</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
@@ -66764,24 +66768,24 @@
       </c>
       <c r="E2076" t="inlineStr">
         <is>
-          <t>PTHR10794</t>
+          <t>PTHR21107</t>
         </is>
       </c>
       <c r="F2076" t="inlineStr">
         <is>
-          <t>PTHR10794</t>
+          <t>PTHR21107</t>
         </is>
       </c>
     </row>
     <row r="2077">
       <c r="A2077" t="inlineStr">
         <is>
-          <t>Q9BX40</t>
+          <t>O95336</t>
         </is>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>P45978</t>
+          <t>P38858</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr">
@@ -66796,24 +66800,24 @@
       </c>
       <c r="E2077" t="inlineStr">
         <is>
-          <t>PTHR13586</t>
+          <t>PTHR11054</t>
         </is>
       </c>
       <c r="F2077" t="inlineStr">
         <is>
-          <t>PTHR13586</t>
+          <t>PTHR11054</t>
         </is>
       </c>
     </row>
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>P41567</t>
+          <t>Q9NYP7</t>
         </is>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>P32911</t>
+          <t>P25358</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -66828,24 +66832,24 @@
       </c>
       <c r="E2078" t="inlineStr">
         <is>
-          <t>PTHR10388</t>
+          <t>PTHR11157</t>
         </is>
       </c>
       <c r="F2078" t="inlineStr">
         <is>
-          <t>PTHR10388</t>
+          <t>PTHR11157</t>
         </is>
       </c>
     </row>
     <row r="2079">
       <c r="A2079" t="inlineStr">
         <is>
-          <t>P62979</t>
+          <t>P62701</t>
         </is>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>P05759</t>
+          <t>P0CX35</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -66860,24 +66864,24 @@
       </c>
       <c r="E2079" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11581</t>
         </is>
       </c>
       <c r="F2079" t="inlineStr">
         <is>
-          <t>PTHR10666</t>
+          <t>PTHR11581</t>
         </is>
       </c>
     </row>
     <row r="2080">
       <c r="A2080" t="inlineStr">
         <is>
-          <t>P08708</t>
+          <t>P20248</t>
         </is>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>P14127</t>
+          <t>P24869</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -66892,24 +66896,24 @@
       </c>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>PTHR10732</t>
+          <t>PTHR10177</t>
         </is>
       </c>
       <c r="F2080" t="inlineStr">
         <is>
-          <t>PTHR10732</t>
+          <t>PTHR10177</t>
         </is>
       </c>
     </row>
     <row r="2081">
       <c r="A2081" t="inlineStr">
         <is>
-          <t>P62837</t>
+          <t>Q13530</t>
         </is>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>P15732</t>
+          <t>Q12116</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr">
@@ -66924,24 +66928,24 @@
       </c>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>PTHR24068</t>
+          <t>PTHR10383</t>
         </is>
       </c>
       <c r="F2081" t="inlineStr">
         <is>
-          <t>PTHR24068</t>
+          <t>PTHR10383</t>
         </is>
       </c>
     </row>
     <row r="2082">
       <c r="A2082" t="inlineStr">
         <is>
-          <t>P12236</t>
+          <t>Q9Y6D5</t>
         </is>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>P18238</t>
+          <t>P11075</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
@@ -66956,24 +66960,24 @@
       </c>
       <c r="E2082" t="inlineStr">
         <is>
-          <t>PTHR45635</t>
+          <t>PTHR10663</t>
         </is>
       </c>
       <c r="F2082" t="inlineStr">
         <is>
-          <t>PTHR45635</t>
+          <t>PTHR10663</t>
         </is>
       </c>
     </row>
     <row r="2083">
       <c r="A2083" t="inlineStr">
         <is>
-          <t>P30838</t>
+          <t>P61513</t>
         </is>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>Q04458</t>
+          <t>P0CX25</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr">
@@ -66988,24 +66992,24 @@
       </c>
       <c r="E2083" t="inlineStr">
         <is>
-          <t>PTHR43570</t>
+          <t>PTHR48160</t>
         </is>
       </c>
       <c r="F2083" t="inlineStr">
         <is>
-          <t>PTHR43570</t>
+          <t>PTHR48188</t>
         </is>
       </c>
     </row>
     <row r="2084">
       <c r="A2084" t="inlineStr">
         <is>
-          <t>Q15436</t>
+          <t>Q00765</t>
         </is>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>P15303</t>
+          <t>Q12402</t>
         </is>
       </c>
       <c r="C2084" t="inlineStr">
@@ -67020,24 +67024,24 @@
       </c>
       <c r="E2084" t="inlineStr">
         <is>
-          <t>PTHR11141</t>
+          <t>PTHR12300</t>
         </is>
       </c>
       <c r="F2084" t="inlineStr">
         <is>
-          <t>PTHR11141</t>
+          <t>PTHR12300</t>
         </is>
       </c>
     </row>
     <row r="2085">
       <c r="A2085" t="inlineStr">
         <is>
-          <t>O75570</t>
+          <t>Q93077</t>
         </is>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>P30775</t>
+          <t>P04912</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
@@ -67052,24 +67056,24 @@
       </c>
       <c r="E2085" t="inlineStr">
         <is>
-          <t>PTHR43804</t>
+          <t>PTHR23430</t>
         </is>
       </c>
       <c r="F2085" t="inlineStr">
         <is>
-          <t>PTHR43804</t>
+          <t>PTHR23430</t>
         </is>
       </c>
     </row>
     <row r="2086">
       <c r="A2086" t="inlineStr">
         <is>
-          <t>P52758</t>
+          <t>Q93077</t>
         </is>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>P40185</t>
+          <t>P04911</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr">
@@ -67084,24 +67088,24 @@
       </c>
       <c r="E2086" t="inlineStr">
         <is>
-          <t>PTHR11803</t>
+          <t>PTHR23430</t>
         </is>
       </c>
       <c r="F2086" t="inlineStr">
         <is>
-          <t>PTHR11803</t>
+          <t>PTHR23430</t>
         </is>
       </c>
     </row>
     <row r="2087">
       <c r="A2087" t="inlineStr">
         <is>
-          <t>P62241</t>
+          <t>P37802</t>
         </is>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>P0CX39</t>
+          <t>Q08873</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
@@ -67116,24 +67120,24 @@
       </c>
       <c r="E2087" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR47385</t>
         </is>
       </c>
       <c r="F2087" t="inlineStr">
         <is>
-          <t>PTHR10394</t>
+          <t>PTHR47385</t>
         </is>
       </c>
     </row>
     <row r="2088">
       <c r="A2088" t="inlineStr">
         <is>
-          <t>P51572</t>
+          <t>A8MWL7</t>
         </is>
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>Q07451</t>
+          <t>P47131</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr">
@@ -67148,24 +67152,24 @@
       </c>
       <c r="E2088" t="inlineStr">
         <is>
-          <t>PTHR12701</t>
+          <t>PTHR12668</t>
         </is>
       </c>
       <c r="F2088" t="inlineStr">
         <is>
-          <t>PTHR12701</t>
+          <t>PTHR12668</t>
         </is>
       </c>
     </row>
     <row r="2089">
       <c r="A2089" t="inlineStr">
         <is>
-          <t>P34897</t>
+          <t>Q9Y2K3</t>
         </is>
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>P37291</t>
+          <t>P08964</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
@@ -67180,24 +67184,24 @@
       </c>
       <c r="E2089" t="inlineStr">
         <is>
-          <t>PTHR11680</t>
+          <t>PTHR45615</t>
         </is>
       </c>
       <c r="F2089" t="inlineStr">
         <is>
-          <t>PTHR11680</t>
+          <t>PTHR45615</t>
         </is>
       </c>
     </row>
     <row r="2090">
       <c r="A2090" t="inlineStr">
         <is>
-          <t>Q13503</t>
+          <t>P18077</t>
         </is>
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>P47822</t>
+          <t>P41056</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -67212,24 +67216,24 @@
       </c>
       <c r="E2090" t="inlineStr">
         <is>
-          <t>PTHR13381</t>
+          <t>PTHR10902</t>
         </is>
       </c>
       <c r="F2090" t="inlineStr">
         <is>
-          <t>PTHR13381</t>
+          <t>PTHR10902</t>
         </is>
       </c>
     </row>
     <row r="2091">
       <c r="A2091" t="inlineStr">
         <is>
-          <t>P61020</t>
+          <t>Q9UHQ9</t>
         </is>
       </c>
       <c r="B2091" t="inlineStr">
         <is>
-          <t>P36017</t>
+          <t>Q12746</t>
         </is>
       </c>
       <c r="C2091" t="inlineStr">
@@ -67244,24 +67248,24 @@
       </c>
       <c r="E2091" t="inlineStr">
         <is>
-          <t>PTHR24073</t>
+          <t>PTHR19370</t>
         </is>
       </c>
       <c r="F2091" t="inlineStr">
         <is>
-          <t>PTHR24073</t>
+          <t>PTHR19370</t>
         </is>
       </c>
     </row>
     <row r="2092">
       <c r="A2092" t="inlineStr">
         <is>
-          <t>Q9NUN7</t>
+          <t>Q9NYZ2</t>
         </is>
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>Q02896</t>
+          <t>P23500</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr">
@@ -67276,24 +67280,24 @@
       </c>
       <c r="E2092" t="inlineStr">
         <is>
-          <t>PTHR46187</t>
+          <t>PTHR45758</t>
         </is>
       </c>
       <c r="F2092" t="inlineStr">
         <is>
-          <t>PTHR46187</t>
+          <t>PTHR45758</t>
         </is>
       </c>
     </row>
     <row r="2093">
       <c r="A2093" t="inlineStr">
         <is>
-          <t>Q9BRT8</t>
+          <t>Q9UNW1</t>
         </is>
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>P53729</t>
+          <t>P35842</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
@@ -67308,24 +67312,24 @@
       </c>
       <c r="E2093" t="inlineStr">
         <is>
-          <t>PTHR13748</t>
+          <t>PTHR20963</t>
         </is>
       </c>
       <c r="F2093" t="inlineStr">
         <is>
-          <t>PTHR13748</t>
+          <t>PTHR20963</t>
         </is>
       </c>
     </row>
     <row r="2094">
       <c r="A2094" t="inlineStr">
         <is>
-          <t>P33121</t>
+          <t>A6NIM6</t>
         </is>
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>P39518</t>
+          <t>P32901</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
@@ -67340,24 +67344,24 @@
       </c>
       <c r="E2094" t="inlineStr">
         <is>
-          <t>PTHR43272</t>
+          <t>PTHR11654</t>
         </is>
       </c>
       <c r="F2094" t="inlineStr">
         <is>
-          <t>PTHR43272</t>
+          <t>PTHR11654</t>
         </is>
       </c>
     </row>
     <row r="2095">
       <c r="A2095" t="inlineStr">
         <is>
-          <t>P62081</t>
+          <t>Q6YFQ2</t>
         </is>
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>P26786</t>
+          <t>Q01519</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr">
@@ -67372,24 +67376,24 @@
       </c>
       <c r="E2095" t="inlineStr">
         <is>
-          <t>PTHR11278</t>
+          <t>PTHR11387</t>
         </is>
       </c>
       <c r="F2095" t="inlineStr">
         <is>
-          <t>PTHR11278</t>
+          <t>PTHR46281</t>
         </is>
       </c>
     </row>
     <row r="2096">
       <c r="A2096" t="inlineStr">
         <is>
-          <t>P28062</t>
+          <t>Q92504</t>
         </is>
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>P30656</t>
+          <t>P40544</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr">
@@ -67404,24 +67408,24 @@
       </c>
       <c r="E2096" t="inlineStr">
         <is>
-          <t>PTHR11599</t>
+          <t>PTHR16950</t>
         </is>
       </c>
       <c r="F2096" t="inlineStr">
         <is>
-          <t>PTHR11599</t>
+          <t>PTHR16950</t>
         </is>
       </c>
     </row>
     <row r="2097">
       <c r="A2097" t="inlineStr">
         <is>
-          <t>P62280</t>
+          <t>Q9BV35</t>
         </is>
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>P0CX48</t>
+          <t>D6W196</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr">
@@ -67436,24 +67440,24 @@
       </c>
       <c r="E2097" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR24089</t>
         </is>
       </c>
       <c r="F2097" t="inlineStr">
         <is>
-          <t>PTHR10744</t>
+          <t>PTHR24089</t>
         </is>
       </c>
     </row>
     <row r="2098">
       <c r="A2098" t="inlineStr">
         <is>
-          <t>Q9BZD2</t>
+          <t>P62269</t>
         </is>
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t>P31381</t>
+          <t>P0CX55</t>
         </is>
       </c>
       <c r="C2098" t="inlineStr">
@@ -67468,24 +67472,24 @@
       </c>
       <c r="E2098" t="inlineStr">
         <is>
-          <t>PTHR10332</t>
+          <t>PTHR10871</t>
         </is>
       </c>
       <c r="F2098" t="inlineStr">
         <is>
-          <t>PTHR10332</t>
+          <t>PTHR10871</t>
         </is>
       </c>
     </row>
     <row r="2099">
       <c r="A2099" t="inlineStr">
         <is>
-          <t>P68400</t>
+          <t>Q9GZZ1</t>
         </is>
       </c>
       <c r="B2099" t="inlineStr">
         <is>
-          <t>P19454</t>
+          <t>Q08689</t>
         </is>
       </c>
       <c r="C2099" t="inlineStr">
@@ -67500,24 +67504,24 @@
       </c>
       <c r="E2099" t="inlineStr">
         <is>
-          <t>PTHR24054</t>
+          <t>PTHR42919</t>
         </is>
       </c>
       <c r="F2099" t="inlineStr">
         <is>
-          <t>PTHR24054</t>
+          <t>PTHR42919</t>
         </is>
       </c>
     </row>
     <row r="2100">
       <c r="A2100" t="inlineStr">
         <is>
-          <t>Q9NYZ2</t>
+          <t>Q9NZZ3</t>
         </is>
       </c>
       <c r="B2100" t="inlineStr">
         <is>
-          <t>P23500</t>
+          <t>Q03390</t>
         </is>
       </c>
       <c r="C2100" t="inlineStr">
@@ -67532,24 +67536,24 @@
       </c>
       <c r="E2100" t="inlineStr">
         <is>
-          <t>PTHR45758</t>
+          <t>PTHR22761</t>
         </is>
       </c>
       <c r="F2100" t="inlineStr">
         <is>
-          <t>PTHR45758</t>
+          <t>PTHR22761</t>
         </is>
       </c>
     </row>
     <row r="2101">
       <c r="A2101" t="inlineStr">
         <is>
-          <t>Q9GZZ1</t>
+          <t>P23193</t>
         </is>
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>Q08689</t>
+          <t>P07273</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -67564,24 +67568,24 @@
       </c>
       <c r="E2101" t="inlineStr">
         <is>
-          <t>PTHR42919</t>
+          <t>PTHR11477</t>
         </is>
       </c>
       <c r="F2101" t="inlineStr">
         <is>
-          <t>PTHR42919</t>
+          <t>PTHR11477</t>
         </is>
       </c>
     </row>
     <row r="2102">
       <c r="A2102" t="inlineStr">
         <is>
-          <t>O00743</t>
+          <t>Q9ULW6</t>
         </is>
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>P20604</t>
+          <t>P25293</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr">
@@ -67596,24 +67600,24 @@
       </c>
       <c r="E2102" t="inlineStr">
         <is>
-          <t>PTHR45619</t>
+          <t>PTHR11875</t>
         </is>
       </c>
       <c r="F2102" t="inlineStr">
         <is>
-          <t>PTHR45619</t>
+          <t>PTHR11875</t>
         </is>
       </c>
     </row>
     <row r="2103">
       <c r="A2103" t="inlineStr">
         <is>
-          <t>P13929</t>
+          <t>Q07020</t>
         </is>
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>P00924</t>
+          <t>P0CX50</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr">
@@ -67628,24 +67632,24 @@
       </c>
       <c r="E2103" t="inlineStr">
         <is>
-          <t>PTHR11902</t>
+          <t>PTHR10934</t>
         </is>
       </c>
       <c r="F2103" t="inlineStr">
         <is>
-          <t>PTHR11902</t>
+          <t>PTHR10934</t>
         </is>
       </c>
     </row>
     <row r="2104">
       <c r="A2104" t="inlineStr">
         <is>
-          <t>P36543</t>
+          <t>Q9NRK6</t>
         </is>
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>P22203</t>
+          <t>P33310</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr">
@@ -67658,26 +67662,22 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2104" t="inlineStr">
-        <is>
-          <t>PTHR45715</t>
-        </is>
-      </c>
+      <c r="E2104" t="inlineStr"/>
       <c r="F2104" t="inlineStr">
         <is>
-          <t>PTHR45715</t>
+          <t>PTHR43394</t>
         </is>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" t="inlineStr">
         <is>
-          <t>Q99873</t>
+          <t>Q9UPT9</t>
         </is>
       </c>
       <c r="B2105" t="inlineStr">
         <is>
-          <t>P38074</t>
+          <t>P50102</t>
         </is>
       </c>
       <c r="C2105" t="inlineStr">
@@ -67692,24 +67692,24 @@
       </c>
       <c r="E2105" t="inlineStr">
         <is>
-          <t>PTHR11006</t>
+          <t>PTHR21646</t>
         </is>
       </c>
       <c r="F2105" t="inlineStr">
         <is>
-          <t>PTHR11006</t>
+          <t>PTHR21646</t>
         </is>
       </c>
     </row>
     <row r="2106">
       <c r="A2106" t="inlineStr">
         <is>
-          <t>Q9UHQ9</t>
+          <t>A6NMK7</t>
         </is>
       </c>
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Q12746</t>
+          <t>Q06102</t>
         </is>
       </c>
       <c r="C2106" t="inlineStr">
@@ -67724,24 +67724,24 @@
       </c>
       <c r="E2106" t="inlineStr">
         <is>
-          <t>PTHR19370</t>
+          <t>PTHR23102</t>
         </is>
       </c>
       <c r="F2106" t="inlineStr">
         <is>
-          <t>PTHR19370</t>
+          <t>PTHR23102</t>
         </is>
       </c>
     </row>
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>O75347</t>
+          <t>P62913</t>
         </is>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>P48606</t>
+          <t>P0C0W9</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr">
@@ -67756,24 +67756,24 @@
       </c>
       <c r="E2107" t="inlineStr">
         <is>
-          <t>PTHR21500</t>
+          <t>PTHR11994</t>
         </is>
       </c>
       <c r="F2107" t="inlineStr">
         <is>
-          <t>PTHR21500</t>
+          <t>PTHR11994</t>
         </is>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>P83881</t>
+          <t>Q14137</t>
         </is>
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>P0CX27</t>
+          <t>Q04660</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr">
@@ -67788,24 +67788,24 @@
       </c>
       <c r="E2108" t="inlineStr">
         <is>
-          <t>PTHR10369</t>
+          <t>PTHR17605</t>
         </is>
       </c>
       <c r="F2108" t="inlineStr">
         <is>
-          <t>PTHR10369</t>
+          <t>PTHR17605</t>
         </is>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" t="inlineStr">
         <is>
-          <t>Q96K37</t>
+          <t>Q6ZS86</t>
         </is>
       </c>
       <c r="B2109" t="inlineStr">
         <is>
-          <t>P22215</t>
+          <t>P32190</t>
         </is>
       </c>
       <c r="C2109" t="inlineStr">
@@ -67820,24 +67820,24 @@
       </c>
       <c r="E2109" t="inlineStr">
         <is>
-          <t>PTHR11132</t>
+          <t>PTHR10196</t>
         </is>
       </c>
       <c r="F2109" t="inlineStr">
         <is>
-          <t>PTHR11132</t>
+          <t>PTHR10196</t>
         </is>
       </c>
     </row>
     <row r="2110">
       <c r="A2110" t="inlineStr">
         <is>
-          <t>O75964</t>
+          <t>Q00796</t>
         </is>
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>Q12233</t>
+          <t>Q07993</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr">
@@ -67852,24 +67852,24 @@
       </c>
       <c r="E2110" t="inlineStr">
         <is>
-          <t>PTHR12386</t>
+          <t>PTHR43161</t>
         </is>
       </c>
       <c r="F2110" t="inlineStr">
         <is>
-          <t>PTHR12386</t>
+          <t>PTHR43161</t>
         </is>
       </c>
     </row>
     <row r="2111">
       <c r="A2111" t="inlineStr">
         <is>
-          <t>Q7L5L3</t>
+          <t>P37837</t>
         </is>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Q08959</t>
+          <t>P53228</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr">
@@ -67884,24 +67884,24 @@
       </c>
       <c r="E2111" t="inlineStr">
         <is>
-          <t>PTHR42758</t>
+          <t>PTHR10683</t>
         </is>
       </c>
       <c r="F2111" t="inlineStr">
         <is>
-          <t>PTHR42758</t>
+          <t>PTHR10683</t>
         </is>
       </c>
     </row>
     <row r="2112">
       <c r="A2112" t="inlineStr">
         <is>
-          <t>Q13530</t>
+          <t>Q9P265</t>
         </is>
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>Q12116</t>
+          <t>Q12275</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr">
@@ -67916,24 +67916,24 @@
       </c>
       <c r="E2112" t="inlineStr">
         <is>
-          <t>PTHR10383</t>
+          <t>PTHR22754</t>
         </is>
       </c>
       <c r="F2112" t="inlineStr">
         <is>
-          <t>PTHR10383</t>
+          <t>PTHR22754</t>
         </is>
       </c>
     </row>
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>Q9P0U1</t>
+          <t>O43747</t>
         </is>
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>P53507</t>
+          <t>Q12028</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr">
@@ -67948,24 +67948,24 @@
       </c>
       <c r="E2113" t="inlineStr">
         <is>
-          <t>PTHR46722</t>
+          <t>PTHR22780</t>
         </is>
       </c>
       <c r="F2113" t="inlineStr">
         <is>
-          <t>PTHR34944</t>
+          <t>PTHR22780</t>
         </is>
       </c>
     </row>
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>Q6XR72</t>
+          <t>O43731</t>
         </is>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>P20107</t>
+          <t>P18414</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr">
@@ -67980,24 +67980,24 @@
       </c>
       <c r="E2114" t="inlineStr">
         <is>
-          <t>PTHR45820</t>
+          <t>PTHR10585</t>
         </is>
       </c>
       <c r="F2114" t="inlineStr">
         <is>
-          <t>PTHR45820</t>
+          <t>PTHR10585</t>
         </is>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
         <is>
-          <t>O14975</t>
+          <t>Q29RF7</t>
         </is>
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>P38225</t>
+          <t>Q04264</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr">
@@ -68012,24 +68012,24 @@
       </c>
       <c r="E2115" t="inlineStr">
         <is>
-          <t>PTHR43107</t>
+          <t>PTHR12663</t>
         </is>
       </c>
       <c r="F2115" t="inlineStr">
         <is>
-          <t>PTHR43107</t>
+          <t>PTHR12663</t>
         </is>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="inlineStr">
         <is>
-          <t>O15431</t>
+          <t>O75387</t>
         </is>
       </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>P38865</t>
+          <t>Q04991</t>
         </is>
       </c>
       <c r="C2116" t="inlineStr">
@@ -68044,24 +68044,24 @@
       </c>
       <c r="E2116" t="inlineStr">
         <is>
-          <t>PTHR12483</t>
+          <t>PTHR20766</t>
         </is>
       </c>
       <c r="F2116" t="inlineStr">
         <is>
-          <t>PTHR12483</t>
+          <t>PTHR20772</t>
         </is>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" t="inlineStr">
         <is>
-          <t>Q9UDW1</t>
+          <t>O60220</t>
         </is>
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>P22289</t>
+          <t>P57744</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr">
@@ -68076,24 +68076,24 @@
       </c>
       <c r="E2117" t="inlineStr">
         <is>
-          <t>PTHR12980</t>
+          <t>PTHR19338</t>
         </is>
       </c>
       <c r="F2117" t="inlineStr">
         <is>
-          <t>PTHR12980</t>
+          <t>PTHR19338</t>
         </is>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" t="inlineStr">
         <is>
-          <t>Q16222</t>
+          <t>O15305</t>
         </is>
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>P43123</t>
+          <t>P07283</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr">
@@ -68108,24 +68108,24 @@
       </c>
       <c r="E2118" t="inlineStr">
         <is>
-          <t>PTHR11952</t>
+          <t>PTHR10466</t>
         </is>
       </c>
       <c r="F2118" t="inlineStr">
         <is>
-          <t>PTHR11952</t>
+          <t>PTHR10466</t>
         </is>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" t="inlineStr">
         <is>
-          <t>P62917</t>
+          <t>P0DP24</t>
         </is>
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>P0CX46</t>
+          <t>P06787</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr">
@@ -68140,24 +68140,24 @@
       </c>
       <c r="E2119" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR23050</t>
         </is>
       </c>
       <c r="F2119" t="inlineStr">
         <is>
-          <t>PTHR13691</t>
+          <t>PTHR23050</t>
         </is>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="inlineStr">
         <is>
-          <t>P58743</t>
+          <t>P32969</t>
         </is>
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>P38359</t>
+          <t>P51401</t>
         </is>
       </c>
       <c r="C2120" t="inlineStr">
@@ -68172,24 +68172,24 @@
       </c>
       <c r="E2120" t="inlineStr">
         <is>
-          <t>PTHR11814</t>
+          <t>PTHR11655</t>
         </is>
       </c>
       <c r="F2120" t="inlineStr">
         <is>
-          <t>PTHR11814</t>
+          <t>PTHR11655</t>
         </is>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>O60493</t>
+          <t>P60059</t>
         </is>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>Q08826</t>
+          <t>P35179</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr">
@@ -68204,24 +68204,24 @@
       </c>
       <c r="E2121" t="inlineStr">
         <is>
-          <t>PTHR45963</t>
+          <t>PTHR12309</t>
         </is>
       </c>
       <c r="F2121" t="inlineStr">
         <is>
-          <t>PTHR45963</t>
+          <t>PTHR12309</t>
         </is>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>Q07020</t>
+          <t>Q6XR72</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>P0CX50</t>
+          <t>P20107</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr">
@@ -68236,24 +68236,24 @@
       </c>
       <c r="E2122" t="inlineStr">
         <is>
-          <t>PTHR10934</t>
+          <t>PTHR45820</t>
         </is>
       </c>
       <c r="F2122" t="inlineStr">
         <is>
-          <t>PTHR10934</t>
+          <t>PTHR45820</t>
         </is>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>P11166</t>
+          <t>P61353</t>
         </is>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>P38142</t>
+          <t>P0C2H7</t>
         </is>
       </c>
       <c r="C2123" t="inlineStr">
@@ -68268,24 +68268,24 @@
       </c>
       <c r="E2123" t="inlineStr">
         <is>
-          <t>PTHR23503</t>
+          <t>PTHR10497</t>
         </is>
       </c>
       <c r="F2123" t="inlineStr">
         <is>
-          <t>PTHR23503</t>
+          <t>PTHR10497</t>
         </is>
       </c>
     </row>
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>P54646</t>
+          <t>Q96NR8</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>P06782</t>
+          <t>Q08651</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr">
@@ -68300,24 +68300,24 @@
       </c>
       <c r="E2124" t="inlineStr">
         <is>
-          <t>PTHR24343</t>
+          <t>PTHR24320</t>
         </is>
       </c>
       <c r="F2124" t="inlineStr">
         <is>
-          <t>PTHR24343</t>
+          <t>PTHR24320</t>
         </is>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="inlineStr">
         <is>
-          <t>P23921</t>
+          <t>P11182</t>
         </is>
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>P21672</t>
+          <t>P19262</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr">
@@ -68332,24 +68332,24 @@
       </c>
       <c r="E2125" t="inlineStr">
         <is>
-          <t>PTHR11573</t>
+          <t>PTHR43178</t>
         </is>
       </c>
       <c r="F2125" t="inlineStr">
         <is>
-          <t>PTHR11573</t>
+          <t>PTHR43416</t>
         </is>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="inlineStr">
         <is>
-          <t>P11586</t>
+          <t>Q5VZY2</t>
         </is>
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>P07245</t>
+          <t>Q05521</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr">
@@ -68364,24 +68364,24 @@
       </c>
       <c r="E2126" t="inlineStr">
         <is>
-          <t>PTHR48099</t>
+          <t>PTHR10165</t>
         </is>
       </c>
       <c r="F2126" t="inlineStr">
         <is>
-          <t>PTHR48099</t>
+          <t>PTHR10165</t>
         </is>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="inlineStr">
         <is>
-          <t>Q9Y244</t>
+          <t>Q9BZD2</t>
         </is>
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>P38293</t>
+          <t>P31381</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr">
@@ -68396,24 +68396,24 @@
       </c>
       <c r="E2127" t="inlineStr">
         <is>
-          <t>PTHR12828</t>
+          <t>PTHR10332</t>
         </is>
       </c>
       <c r="F2127" t="inlineStr">
         <is>
-          <t>PTHR12828</t>
+          <t>PTHR10332</t>
         </is>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" t="inlineStr">
         <is>
-          <t>Q00266</t>
+          <t>Q8N4V2</t>
         </is>
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>P10659</t>
+          <t>P25297</t>
         </is>
       </c>
       <c r="C2128" t="inlineStr">
@@ -68428,24 +68428,24 @@
       </c>
       <c r="E2128" t="inlineStr">
         <is>
-          <t>PTHR11964</t>
+          <t>PTHR24064</t>
         </is>
       </c>
       <c r="F2128" t="inlineStr">
         <is>
-          <t>PTHR11964</t>
+          <t>PTHR24064</t>
         </is>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" t="inlineStr">
         <is>
-          <t>Q9HD42</t>
+          <t>Q9BTT4</t>
         </is>
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>P69771</t>
+          <t>Q06213</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr">
@@ -68460,24 +68460,24 @@
       </c>
       <c r="E2129" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR13345</t>
         </is>
       </c>
       <c r="F2129" t="inlineStr">
         <is>
-          <t>PTHR10476</t>
+          <t>PTHR13345</t>
         </is>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>P41091</t>
+          <t>O75880</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>P32481</t>
+          <t>P38072</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr">
@@ -68492,24 +68492,24 @@
       </c>
       <c r="E2130" t="inlineStr">
         <is>
-          <t>PTHR42854</t>
+          <t>PTHR12151</t>
         </is>
       </c>
       <c r="F2130" t="inlineStr">
         <is>
-          <t>PTHR42854</t>
+          <t>PTHR12151</t>
         </is>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>Q00796</t>
+          <t>O15431</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>Q07993</t>
+          <t>P38865</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -68524,24 +68524,24 @@
       </c>
       <c r="E2131" t="inlineStr">
         <is>
-          <t>PTHR43161</t>
+          <t>PTHR12483</t>
         </is>
       </c>
       <c r="F2131" t="inlineStr">
         <is>
-          <t>PTHR43161</t>
+          <t>PTHR12483</t>
         </is>
       </c>
     </row>
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>Q7KZ85</t>
+          <t>Q9NUN7</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>P23615</t>
+          <t>Q02896</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr">
@@ -68556,24 +68556,24 @@
       </c>
       <c r="E2132" t="inlineStr">
         <is>
-          <t>PTHR10145</t>
+          <t>PTHR46187</t>
         </is>
       </c>
       <c r="F2132" t="inlineStr">
         <is>
-          <t>PTHR10145</t>
+          <t>PTHR46187</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>P52701</t>
+          <t>P58743</t>
         </is>
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Q03834</t>
+          <t>P38359</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr">
@@ -68588,24 +68588,24 @@
       </c>
       <c r="E2133" t="inlineStr">
         <is>
-          <t>PTHR11361</t>
+          <t>PTHR11814</t>
         </is>
       </c>
       <c r="F2133" t="inlineStr">
         <is>
-          <t>PTHR11361</t>
+          <t>PTHR11814</t>
         </is>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>P56377</t>
+          <t>Q9UH03</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>P35181</t>
+          <t>P25342</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr">
@@ -68620,24 +68620,24 @@
       </c>
       <c r="E2134" t="inlineStr">
         <is>
-          <t>PTHR11753</t>
+          <t>PTHR18884</t>
         </is>
       </c>
       <c r="F2134" t="inlineStr">
         <is>
-          <t>PTHR11753</t>
+          <t>PTHR18884</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>O95372</t>
+          <t>Q8N4E4</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>Q12354</t>
+          <t>Q12017</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr">
@@ -68652,24 +68652,24 @@
       </c>
       <c r="E2135" t="inlineStr">
         <is>
-          <t>PTHR10655</t>
+          <t>PTHR45809</t>
         </is>
       </c>
       <c r="F2135" t="inlineStr">
         <is>
-          <t>PTHR10655</t>
+          <t>PTHR45809</t>
         </is>
       </c>
     </row>
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>P0DP23</t>
+          <t>P62917</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>P06787</t>
+          <t>P0CX46</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr">
@@ -68684,24 +68684,24 @@
       </c>
       <c r="E2136" t="inlineStr">
         <is>
-          <t>PTHR23050</t>
+          <t>PTHR13691</t>
         </is>
       </c>
       <c r="F2136" t="inlineStr">
         <is>
-          <t>PTHR23050</t>
+          <t>PTHR13691</t>
         </is>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>Q9BV35</t>
+          <t>Q16222</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>D6W196</t>
+          <t>P43123</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr">
@@ -68716,24 +68716,24 @@
       </c>
       <c r="E2137" t="inlineStr">
         <is>
-          <t>PTHR24089</t>
+          <t>PTHR11952</t>
         </is>
       </c>
       <c r="F2137" t="inlineStr">
         <is>
-          <t>PTHR24089</t>
+          <t>PTHR11952</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>Q9ULC4</t>
+          <t>O00743</t>
         </is>
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>P89886</t>
+          <t>P20604</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">
@@ -68748,24 +68748,24 @@
       </c>
       <c r="E2138" t="inlineStr">
         <is>
-          <t>PTHR22798</t>
+          <t>PTHR45619</t>
         </is>
       </c>
       <c r="F2138" t="inlineStr">
         <is>
-          <t>PTHR22798</t>
+          <t>PTHR45619</t>
         </is>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>Q15120</t>
+          <t>P61020</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>P40530</t>
+          <t>P36017</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr">
@@ -68780,24 +68780,24 @@
       </c>
       <c r="E2139" t="inlineStr">
         <is>
-          <t>PTHR11947</t>
+          <t>PTHR24073</t>
         </is>
       </c>
       <c r="F2139" t="inlineStr">
         <is>
-          <t>PTHR11947</t>
+          <t>PTHR24073</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>P0DP24</t>
+          <t>P30050</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>P06787</t>
+          <t>P0CX54</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr">
@@ -68812,24 +68812,24 @@
       </c>
       <c r="E2140" t="inlineStr">
         <is>
-          <t>PTHR23050</t>
+          <t>PTHR11661</t>
         </is>
       </c>
       <c r="F2140" t="inlineStr">
         <is>
-          <t>PTHR23050</t>
+          <t>PTHR11661</t>
         </is>
       </c>
     </row>
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>O43488</t>
+          <t>P51572</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>P42884</t>
+          <t>Q07451</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr">
@@ -68844,24 +68844,24 @@
       </c>
       <c r="E2141" t="inlineStr">
         <is>
-          <t>PTHR43625</t>
+          <t>PTHR12701</t>
         </is>
       </c>
       <c r="F2141" t="inlineStr">
         <is>
-          <t>PTHR43364</t>
+          <t>PTHR12701</t>
         </is>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>Q9UNW1</t>
+          <t>P15259</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>P35842</t>
+          <t>P00950</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr">
@@ -68876,24 +68876,24 @@
       </c>
       <c r="E2142" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR11931</t>
         </is>
       </c>
       <c r="F2142" t="inlineStr">
         <is>
-          <t>PTHR20963</t>
+          <t>PTHR11931</t>
         </is>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>Q9Y5U9</t>
+          <t>Q15436</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>Q3E834</t>
+          <t>P15303</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr">
@@ -68908,24 +68908,24 @@
       </c>
       <c r="E2143" t="inlineStr">
         <is>
-          <t>PTHR15858</t>
+          <t>PTHR11141</t>
         </is>
       </c>
       <c r="F2143" t="inlineStr">
         <is>
-          <t>PTHR15858</t>
+          <t>PTHR11141</t>
         </is>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>Q8TB40</t>
+          <t>P84101</t>
         </is>
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>Q12385</t>
+          <t>Q3E7B7</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr">
@@ -68940,24 +68940,24 @@
       </c>
       <c r="E2144" t="inlineStr">
         <is>
-          <t>PTHR42886</t>
+          <t>PTHR13596</t>
         </is>
       </c>
       <c r="F2144" t="inlineStr">
         <is>
-          <t>PTHR42886</t>
+          <t>PTHR13596</t>
         </is>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
         <is>
-          <t>P13667</t>
+          <t>P30838</t>
         </is>
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>P17967</t>
+          <t>Q04458</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr">
@@ -68972,24 +68972,24 @@
       </c>
       <c r="E2145" t="inlineStr">
         <is>
-          <t>PTHR18929</t>
+          <t>PTHR43570</t>
         </is>
       </c>
       <c r="F2145" t="inlineStr">
         <is>
-          <t>PTHR18929</t>
+          <t>PTHR43570</t>
         </is>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>O75874</t>
+          <t>P34897</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>P21954</t>
+          <t>P37291</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr">
@@ -69004,24 +69004,24 @@
       </c>
       <c r="E2146" t="inlineStr">
         <is>
-          <t>PTHR11822</t>
+          <t>PTHR11680</t>
         </is>
       </c>
       <c r="F2146" t="inlineStr">
         <is>
-          <t>PTHR11822</t>
+          <t>PTHR11680</t>
         </is>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" t="inlineStr">
         <is>
-          <t>Q53GQ0</t>
+          <t>P14618</t>
         </is>
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>P38286</t>
+          <t>P00549</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr">
@@ -69036,24 +69036,24 @@
       </c>
       <c r="E2147" t="inlineStr">
         <is>
-          <t>PTHR43899</t>
+          <t>PTHR11817</t>
         </is>
       </c>
       <c r="F2147" t="inlineStr">
         <is>
-          <t>PTHR43086</t>
+          <t>PTHR11817</t>
         </is>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>Q9P265</t>
+          <t>P29218</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>Q12275</t>
+          <t>Q05533</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr">
@@ -69068,24 +69068,24 @@
       </c>
       <c r="E2148" t="inlineStr">
         <is>
-          <t>PTHR22754</t>
+          <t>PTHR20854</t>
         </is>
       </c>
       <c r="F2148" t="inlineStr">
         <is>
-          <t>PTHR22754</t>
+          <t>PTHR20854</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>P84098</t>
+          <t>P34932</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>P0CX83</t>
+          <t>P32590</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr">
@@ -69100,24 +69100,24 @@
       </c>
       <c r="E2149" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR45639</t>
         </is>
       </c>
       <c r="F2149" t="inlineStr">
         <is>
-          <t>PTHR10722</t>
+          <t>PTHR45639</t>
         </is>
       </c>
     </row>
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>P36578</t>
+          <t>Q96MV8</t>
         </is>
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>P49626</t>
+          <t>Q03289</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr">
@@ -69132,24 +69132,24 @@
       </c>
       <c r="E2150" t="inlineStr">
         <is>
-          <t>PTHR19431</t>
+          <t>PTHR22883</t>
         </is>
       </c>
       <c r="F2150" t="inlineStr">
         <is>
-          <t>PTHR19431</t>
+          <t>PTHR22883</t>
         </is>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" t="inlineStr">
         <is>
-          <t>Q13509</t>
+          <t>Q9ULC4</t>
         </is>
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>P02557</t>
+          <t>P89886</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr">
@@ -69164,24 +69164,24 @@
       </c>
       <c r="E2151" t="inlineStr">
         <is>
-          <t>PTHR11588</t>
+          <t>PTHR22798</t>
         </is>
       </c>
       <c r="F2151" t="inlineStr">
         <is>
-          <t>PTHR11588</t>
+          <t>PTHR22798</t>
         </is>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" t="inlineStr">
         <is>
-          <t>P14618</t>
+          <t>P11586</t>
         </is>
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>P00549</t>
+          <t>P07245</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr">
@@ -69196,24 +69196,24 @@
       </c>
       <c r="E2152" t="inlineStr">
         <is>
-          <t>PTHR11817</t>
+          <t>PTHR48099</t>
         </is>
       </c>
       <c r="F2152" t="inlineStr">
         <is>
-          <t>PTHR11817</t>
+          <t>PTHR48099</t>
         </is>
       </c>
     </row>
     <row r="2153">
       <c r="A2153" t="inlineStr">
         <is>
-          <t>O75694</t>
+          <t>O75874</t>
         </is>
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>P40064</t>
+          <t>P21954</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr">
@@ -69228,24 +69228,24 @@
       </c>
       <c r="E2153" t="inlineStr">
         <is>
-          <t>PTHR10350</t>
+          <t>PTHR11822</t>
         </is>
       </c>
       <c r="F2153" t="inlineStr">
         <is>
-          <t>PTHR10350</t>
+          <t>PTHR11822</t>
         </is>
       </c>
     </row>
     <row r="2154">
       <c r="A2154" t="inlineStr">
         <is>
-          <t>O15270</t>
+          <t>Q7KZ85</t>
         </is>
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>P40970</t>
+          <t>P23615</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr">
@@ -69260,24 +69260,24 @@
       </c>
       <c r="E2154" t="inlineStr">
         <is>
-          <t>PTHR13693</t>
+          <t>PTHR10145</t>
         </is>
       </c>
       <c r="F2154" t="inlineStr">
         <is>
-          <t>PTHR13693</t>
+          <t>PTHR10145</t>
         </is>
       </c>
     </row>
     <row r="2155">
       <c r="A2155" t="inlineStr">
         <is>
-          <t>Q93077</t>
+          <t>P51955</t>
         </is>
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>P04912</t>
+          <t>P22209</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr">
@@ -69292,24 +69292,24 @@
       </c>
       <c r="E2155" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR43671</t>
         </is>
       </c>
       <c r="F2155" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR43671</t>
         </is>
       </c>
     </row>
     <row r="2156">
       <c r="A2156" t="inlineStr">
         <is>
-          <t>Q93077</t>
+          <t>O43633</t>
         </is>
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>P04911</t>
+          <t>P36108</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr">
@@ -69324,24 +69324,24 @@
       </c>
       <c r="E2156" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR10476</t>
         </is>
       </c>
       <c r="F2156" t="inlineStr">
         <is>
-          <t>PTHR23430</t>
+          <t>PTHR10476</t>
         </is>
       </c>
     </row>
     <row r="2157">
       <c r="A2157" t="inlineStr">
         <is>
-          <t>Q02543</t>
+          <t>Q9Y5L4</t>
         </is>
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>P0CX23</t>
+          <t>P53299</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr">
@@ -69356,24 +69356,24 @@
       </c>
       <c r="E2157" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR19338</t>
         </is>
       </c>
       <c r="F2157" t="inlineStr">
         <is>
-          <t>PTHR10052</t>
+          <t>PTHR19338</t>
         </is>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>O60220</t>
+          <t>P54646</t>
         </is>
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>P57744</t>
+          <t>P06782</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr">
@@ -69388,24 +69388,24 @@
       </c>
       <c r="E2158" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR24343</t>
         </is>
       </c>
       <c r="F2158" t="inlineStr">
         <is>
-          <t>PTHR19338</t>
+          <t>PTHR24343</t>
         </is>
       </c>
     </row>
     <row r="2159">
       <c r="A2159" t="inlineStr">
         <is>
-          <t>P62829</t>
+          <t>Q8N3E9</t>
         </is>
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>P0CX42</t>
+          <t>P32383</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr">
@@ -69420,24 +69420,24 @@
       </c>
       <c r="E2159" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10336</t>
         </is>
       </c>
       <c r="F2159" t="inlineStr">
         <is>
-          <t>PTHR11761</t>
+          <t>PTHR10336</t>
         </is>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" t="inlineStr">
         <is>
-          <t>P62269</t>
+          <t>P62854</t>
         </is>
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>P0CX55</t>
+          <t>P39939</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr">
@@ -69452,24 +69452,24 @@
       </c>
       <c r="E2160" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR12538</t>
         </is>
       </c>
       <c r="F2160" t="inlineStr">
         <is>
-          <t>PTHR10871</t>
+          <t>PTHR12538</t>
         </is>
       </c>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
         <is>
-          <t>Q9UPT9</t>
+          <t>Q9Y5U9</t>
         </is>
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>P50102</t>
+          <t>Q3E834</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr">
@@ -69484,24 +69484,24 @@
       </c>
       <c r="E2161" t="inlineStr">
         <is>
-          <t>PTHR21646</t>
+          <t>PTHR15858</t>
         </is>
       </c>
       <c r="F2161" t="inlineStr">
         <is>
-          <t>PTHR21646</t>
+          <t>PTHR15858</t>
         </is>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" t="inlineStr">
         <is>
-          <t>P30153</t>
+          <t>P41250</t>
         </is>
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>P31383</t>
+          <t>P38088</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -69516,24 +69516,24 @@
       </c>
       <c r="E2162" t="inlineStr">
         <is>
-          <t>PTHR10648</t>
+          <t>PTHR10745</t>
         </is>
       </c>
       <c r="F2162" t="inlineStr">
         <is>
-          <t>PTHR10648</t>
+          <t>PTHR10745</t>
         </is>
       </c>
     </row>
     <row r="2163">
       <c r="A2163" t="inlineStr">
         <is>
-          <t>Q2TB90</t>
+          <t>P08708</t>
         </is>
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>P04807</t>
+          <t>P14127</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -69548,24 +69548,24 @@
       </c>
       <c r="E2163" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR10732</t>
         </is>
       </c>
       <c r="F2163" t="inlineStr">
         <is>
-          <t>PTHR19443</t>
+          <t>PTHR10732</t>
         </is>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" t="inlineStr">
         <is>
-          <t>O76003</t>
+          <t>Q96SL4</t>
         </is>
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>P32642</t>
+          <t>P38143</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr">
@@ -69580,24 +69580,24 @@
       </c>
       <c r="E2164" t="inlineStr">
         <is>
-          <t>PTHR10293</t>
+          <t>PTHR11592</t>
         </is>
       </c>
       <c r="F2164" t="inlineStr">
         <is>
-          <t>PTHR10293</t>
+          <t>PTHR11592</t>
         </is>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="inlineStr">
         <is>
-          <t>P49459</t>
+          <t>P0DKB6</t>
         </is>
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>P06104</t>
+          <t>P53157</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr">
@@ -69612,24 +69612,24 @@
       </c>
       <c r="E2165" t="inlineStr">
         <is>
-          <t>PTHR24067</t>
+          <t>PTHR14154</t>
         </is>
       </c>
       <c r="F2165" t="inlineStr">
         <is>
-          <t>PTHR24067</t>
+          <t>PTHR14154</t>
         </is>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="inlineStr">
         <is>
-          <t>Q59GN2</t>
+          <t>Q00341</t>
         </is>
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>P04650</t>
+          <t>P06105</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr">
@@ -69644,24 +69644,24 @@
       </c>
       <c r="E2166" t="inlineStr">
         <is>
-          <t>PTHR19970</t>
+          <t>PTHR10627</t>
         </is>
       </c>
       <c r="F2166" t="inlineStr">
         <is>
-          <t>PTHR19970</t>
+          <t>PTHR10627</t>
         </is>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="inlineStr">
         <is>
-          <t>P05386</t>
+          <t>Q6QHF9</t>
         </is>
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>P05318</t>
+          <t>P50264</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr">
@@ -69676,24 +69676,24 @@
       </c>
       <c r="E2167" t="inlineStr">
         <is>
-          <t>PTHR45696</t>
+          <t>PTHR10742</t>
         </is>
       </c>
       <c r="F2167" t="inlineStr">
         <is>
-          <t>PTHR45696</t>
+          <t>PTHR10742</t>
         </is>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="inlineStr">
         <is>
-          <t>Q49B96</t>
+          <t>Q8NBQ5</t>
         </is>
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>Q3E731</t>
+          <t>Q07530</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr">
@@ -69708,24 +69708,24 @@
       </c>
       <c r="E2168" t="inlineStr">
         <is>
-          <t>PTHR21107</t>
+          <t>PTHR24322</t>
         </is>
       </c>
       <c r="F2168" t="inlineStr">
         <is>
-          <t>PTHR21107</t>
+          <t>PTHR24322</t>
         </is>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>P46778</t>
+          <t>O15120</t>
         </is>
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>Q02753</t>
+          <t>P33333</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr">
@@ -69740,24 +69740,24 @@
       </c>
       <c r="E2169" t="inlineStr">
         <is>
-          <t>PTHR20981</t>
+          <t>PTHR10434</t>
         </is>
       </c>
       <c r="F2169" t="inlineStr">
         <is>
-          <t>PTHR20981</t>
+          <t>PTHR10434</t>
         </is>
       </c>
     </row>
     <row r="2170">
       <c r="A2170" t="inlineStr">
         <is>
-          <t>P20839</t>
+          <t>Q6ZVE7</t>
         </is>
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>P50094</t>
+          <t>Q03554</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr">
@@ -69772,24 +69772,24 @@
       </c>
       <c r="E2170" t="inlineStr">
         <is>
-          <t>PTHR11911</t>
+          <t>PTHR21493</t>
         </is>
       </c>
       <c r="F2170" t="inlineStr">
         <is>
-          <t>PTHR11911</t>
+          <t>PTHR21493</t>
         </is>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" t="inlineStr">
         <is>
-          <t>Q9Y6K0</t>
+          <t>Q9Y5J7</t>
         </is>
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>P17898</t>
+          <t>O74700</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr">
@@ -69804,24 +69804,24 @@
       </c>
       <c r="E2171" t="inlineStr">
         <is>
-          <t>PTHR10414</t>
+          <t>PTHR13172</t>
         </is>
       </c>
       <c r="F2171" t="inlineStr">
         <is>
-          <t>PTHR10414</t>
+          <t>PTHR13172</t>
         </is>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>Q29RF7</t>
+          <t>Q8WWV3</t>
         </is>
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>Q04264</t>
+          <t>P28625</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr">
@@ -69836,24 +69836,24 @@
       </c>
       <c r="E2172" t="inlineStr">
         <is>
-          <t>PTHR12663</t>
+          <t>PTHR11695</t>
         </is>
       </c>
       <c r="F2172" t="inlineStr">
         <is>
-          <t>PTHR12663</t>
+          <t>PTHR11695</t>
         </is>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="inlineStr">
         <is>
-          <t>P61353</t>
+          <t>O76003</t>
         </is>
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>P0C2H7</t>
+          <t>P32642</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr">
@@ -69868,24 +69868,24 @@
       </c>
       <c r="E2173" t="inlineStr">
         <is>
-          <t>PTHR10497</t>
+          <t>PTHR10293</t>
         </is>
       </c>
       <c r="F2173" t="inlineStr">
         <is>
-          <t>PTHR10497</t>
+          <t>PTHR10293</t>
         </is>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="inlineStr">
         <is>
-          <t>Q9ULV0</t>
+          <t>O60493</t>
         </is>
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>P19524</t>
+          <t>Q08826</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr">
@@ -69900,24 +69900,24 @@
       </c>
       <c r="E2174" t="inlineStr">
         <is>
-          <t>PTHR13140</t>
+          <t>PTHR45963</t>
         </is>
       </c>
       <c r="F2174" t="inlineStr">
         <is>
-          <t>PTHR13140</t>
+          <t>PTHR45963</t>
         </is>
       </c>
     </row>
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>Q9Y2X8</t>
+          <t>Q16769</t>
         </is>
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>P15731</t>
+          <t>P43599</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr">
@@ -69932,24 +69932,24 @@
       </c>
       <c r="E2175" t="inlineStr">
         <is>
-          <t>PTHR24068</t>
+          <t>PTHR12283</t>
         </is>
       </c>
       <c r="F2175" t="inlineStr">
         <is>
-          <t>PTHR24068</t>
+          <t>PTHR12283</t>
         </is>
       </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
         <is>
-          <t>P84077</t>
+          <t>P11498</t>
         </is>
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>P19146</t>
+          <t>P32327</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr">
@@ -69964,24 +69964,24 @@
       </c>
       <c r="E2176" t="inlineStr">
         <is>
-          <t>PTHR11711</t>
+          <t>PTHR43778</t>
         </is>
       </c>
       <c r="F2176" t="inlineStr">
         <is>
-          <t>PTHR11711</t>
+          <t>PTHR43778</t>
         </is>
       </c>
     </row>
     <row r="2177">
       <c r="A2177" t="inlineStr">
         <is>
-          <t>P0DI82</t>
+          <t>P20839</t>
         </is>
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>P38334</t>
+          <t>P50094</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr">
@@ -69996,24 +69996,24 @@
       </c>
       <c r="E2177" t="inlineStr">
         <is>
-          <t>PTHR12403</t>
+          <t>PTHR11911</t>
         </is>
       </c>
       <c r="F2177" t="inlineStr">
         <is>
-          <t>PTHR12403</t>
+          <t>PTHR11911</t>
         </is>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" t="inlineStr">
         <is>
-          <t>O15120</t>
+          <t>P36578</t>
         </is>
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>P33333</t>
+          <t>P49626</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr">
@@ -70028,24 +70028,24 @@
       </c>
       <c r="E2178" t="inlineStr">
         <is>
-          <t>PTHR10434</t>
+          <t>PTHR19431</t>
         </is>
       </c>
       <c r="F2178" t="inlineStr">
         <is>
-          <t>PTHR10434</t>
+          <t>PTHR19431</t>
         </is>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>P28845</t>
+          <t>O75964</t>
         </is>
       </c>
       <c r="B2179" t="inlineStr">
         <is>
-          <t>P40579</t>
+          <t>Q12233</t>
         </is>
       </c>
       <c r="C2179" t="inlineStr">
@@ -70060,24 +70060,24 @@
       </c>
       <c r="E2179" t="inlineStr">
         <is>
-          <t>PTHR44279</t>
+          <t>PTHR12386</t>
         </is>
       </c>
       <c r="F2179" t="inlineStr">
         <is>
-          <t>PTHR43008</t>
+          <t>PTHR12386</t>
         </is>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" t="inlineStr">
         <is>
-          <t>O15427</t>
+          <t>Q16775</t>
         </is>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>Q08268</t>
+          <t>Q12320</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr">
@@ -70092,12 +70092,12 @@
       </c>
       <c r="E2180" t="inlineStr">
         <is>
-          <t>PTHR11360</t>
+          <t>PTHR11935</t>
         </is>
       </c>
       <c r="F2180" t="inlineStr">
         <is>
-          <t>PTHR11360</t>
+          <t>PTHR11935</t>
         </is>
       </c>
     </row>
@@ -70136,12 +70136,12 @@
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>P0DPB6</t>
+          <t>P52701</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>P28000</t>
+          <t>Q03834</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr">
@@ -70156,24 +70156,24 @@
       </c>
       <c r="E2182" t="inlineStr">
         <is>
-          <t>PTHR13946</t>
+          <t>PTHR11361</t>
         </is>
       </c>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>PTHR13946</t>
+          <t>PTHR11361</t>
         </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>Q96SL4</t>
+          <t>P33121</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>P38143</t>
+          <t>P39518</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr">
@@ -70188,24 +70188,24 @@
       </c>
       <c r="E2183" t="inlineStr">
         <is>
-          <t>PTHR11592</t>
+          <t>PTHR43272</t>
         </is>
       </c>
       <c r="F2183" t="inlineStr">
         <is>
-          <t>PTHR11592</t>
+          <t>PTHR43272</t>
         </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>Q09028</t>
+          <t>Q9BX40</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>P39984</t>
+          <t>P45978</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr">
@@ -70220,24 +70220,24 @@
       </c>
       <c r="E2184" t="inlineStr">
         <is>
-          <t>PTHR22850</t>
+          <t>PTHR13586</t>
         </is>
       </c>
       <c r="F2184" t="inlineStr">
         <is>
-          <t>PTHR22850</t>
+          <t>PTHR13586</t>
         </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>P14550</t>
+          <t>O75947</t>
         </is>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>P14065</t>
+          <t>P30902</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr">
@@ -70252,24 +70252,24 @@
       </c>
       <c r="E2185" t="inlineStr">
         <is>
-          <t>PTHR11732</t>
+          <t>PTHR12700</t>
         </is>
       </c>
       <c r="F2185" t="inlineStr">
         <is>
-          <t>PTHR11732</t>
+          <t>PTHR12700</t>
         </is>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="inlineStr">
         <is>
-          <t>Q9Y3B3</t>
+          <t>P52790</t>
         </is>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>P39704</t>
+          <t>P04806</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr">
@@ -70284,24 +70284,24 @@
       </c>
       <c r="E2186" t="inlineStr">
         <is>
-          <t>PTHR22811</t>
+          <t>PTHR19443</t>
         </is>
       </c>
       <c r="F2186" t="inlineStr">
         <is>
-          <t>PTHR22811</t>
+          <t>PTHR19443</t>
         </is>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="inlineStr">
         <is>
-          <t>Q5T280</t>
+          <t>P28062</t>
         </is>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>Q04867</t>
+          <t>P30656</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
@@ -70316,24 +70316,24 @@
       </c>
       <c r="E2187" t="inlineStr">
         <is>
-          <t>PTHR12150</t>
+          <t>PTHR11599</t>
         </is>
       </c>
       <c r="F2187" t="inlineStr">
         <is>
-          <t>PTHR12150</t>
+          <t>PTHR11599</t>
         </is>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="inlineStr">
         <is>
-          <t>Q6QHF9</t>
+          <t>O75348</t>
         </is>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>P50264</t>
+          <t>P48836</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
@@ -70348,12 +70348,12 @@
       </c>
       <c r="E2188" t="inlineStr">
         <is>
-          <t>PTHR10742</t>
+          <t>PTHR12713</t>
         </is>
       </c>
       <c r="F2188" t="inlineStr">
         <is>
-          <t>PTHR10742</t>
+          <t>PTHR12713</t>
         </is>
       </c>
     </row>
